--- a/Philippe/Eq de bateman avec flux-annexe.xlsx
+++ b/Philippe/Eq de bateman avec flux-annexe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7140" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="jdd" sheetId="3" r:id="rId1"/>
@@ -13,16 +13,14 @@
     <sheet name="V.Pu_dragon" sheetId="6" r:id="rId4"/>
     <sheet name="all" sheetId="7" r:id="rId5"/>
     <sheet name="am241" sheetId="8" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="9" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="310">
   <si>
     <t>Pu239</t>
   </si>
@@ -941,6 +939,18 @@
   <si>
     <t>drho</t>
   </si>
+  <si>
+    <t>t(y)</t>
+  </si>
+  <si>
+    <t>N(Am241)- RK1</t>
+  </si>
+  <si>
+    <t>N(Am241)- DRAGON</t>
+  </si>
+  <si>
+    <t>t(j)</t>
+  </si>
 </sst>
 </file>
 
@@ -2427,11 +2437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95745536"/>
-        <c:axId val="95767936"/>
+        <c:axId val="71064960"/>
+        <c:axId val="71083136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95745536"/>
+        <c:axId val="71064960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2451,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95767936"/>
+        <c:crossAx val="71083136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95767936"/>
+        <c:axId val="71083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95745536"/>
+        <c:crossAx val="71064960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2858,11 +2868,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95581312"/>
-        <c:axId val="95582848"/>
+        <c:axId val="69411584"/>
+        <c:axId val="69413120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95581312"/>
+        <c:axId val="69411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,12 +2882,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95582848"/>
+        <c:crossAx val="69413120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95582848"/>
+        <c:axId val="69413120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2889,7 +2899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95581312"/>
+        <c:crossAx val="69411584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3290,11 +3300,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132450176"/>
-        <c:axId val="132451712"/>
+        <c:axId val="69429504"/>
+        <c:axId val="69443584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132450176"/>
+        <c:axId val="69429504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,12 +3314,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132451712"/>
+        <c:crossAx val="69443584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132451712"/>
+        <c:axId val="69443584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132450176"/>
+        <c:crossAx val="69429504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5388,11 +5398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="88522752"/>
-        <c:axId val="88524288"/>
+        <c:axId val="70773376"/>
+        <c:axId val="71180672"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="88522752"/>
+        <c:axId val="70773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88524288"/>
+        <c:crossAx val="71180672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5410,7 +5420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88524288"/>
+        <c:axId val="71180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88522752"/>
+        <c:crossAx val="70773376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8189,11 +8199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133953024"/>
-        <c:axId val="133954560"/>
+        <c:axId val="74783360"/>
+        <c:axId val="74793344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133953024"/>
+        <c:axId val="74783360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8203,12 +8213,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133954560"/>
+        <c:crossAx val="74793344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133954560"/>
+        <c:axId val="74793344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8219,7 +8229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133953024"/>
+        <c:crossAx val="74783360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8620,11 +8630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136807552"/>
-        <c:axId val="136809088"/>
+        <c:axId val="74864128"/>
+        <c:axId val="74865664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136807552"/>
+        <c:axId val="74864128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8634,12 +8644,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136809088"/>
+        <c:crossAx val="74865664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136809088"/>
+        <c:axId val="74865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.5000000000000008E-5"/>
@@ -8651,7 +8661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136807552"/>
+        <c:crossAx val="74864128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8665,6 +8675,1401 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Quantité d'Am241 en fonction du temps</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12138091120112876"/>
+          <c:y val="0.16924103526228346"/>
+          <c:w val="0.81138864867325111"/>
+          <c:h val="0.41595844740836657"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N(Am241)- DRAGON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.468769438502268E-2"/>
+                  <c:y val="0.40629274729526205"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$16387</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16386"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$16387</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="16386"/>
+                <c:pt idx="0">
+                  <c:v>52.114148285917473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.458981348399675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.730759105925998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.931188149659597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.066872468995932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.141281189366282</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.162774935541528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.133324310812263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.061384586328629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.947373138223995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.799794211311557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.620704916091725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.412163571318736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.181073160293352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.927867648281463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.654587283192974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.366489289084583</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.065584808103814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.752256104212968</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.430094720218221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.101059304540051</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.765480051849842</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49.425279921737783</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.082361570730207</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48.737002637945444</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.391068939098822</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.044804664333135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.698440376554309</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47.355387146153312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.01264835227839</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.673602051067533</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.33682629028533</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.0024847725604</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45.672316630342607</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.346458030096343</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45.023453959013111</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.70658662241987</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.391227352205107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.082213212684643</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.776485568136515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.474136462863925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.1752509703919</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.881471884066464</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.591302074002051</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.304807774157297</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.020492768441109</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.739974197759892</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.46330232475897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.188973313862576</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40.917035627087515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N(Am241)- RK1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050">
+                <a:prstDash val="lgDashDot"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1576168585863185E-2"/>
+                  <c:y val="0.40100121197526306"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.0833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.4166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8.5833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>9.0833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>9.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.4166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.5833333333333339</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10.166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.083333333333334</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11.166666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="135"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>52.114148285917473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.215626493826136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.305756789460467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.385075265916065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.454098460488972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.513323982244337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.563231120710348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.604281436246481</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.636919332619222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.661572612303303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.678653015011633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.688556739942761</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.69166495222062</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.688344273987852</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.678947260600694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.663812862360679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.643266872205793</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.617622359771829</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.587180092222702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.552228942237186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.513046283528396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.469898374261504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.423040728724715</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.372718477598397</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.319166717157202</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.262610847730613</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.203266901737777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.141341861603564</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52.077033967853936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.010533017680039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.942020654252261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.87167064705725</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.799649163523171</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.726115032190648</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.651219997679682</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.575108967695336</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51.497920252308184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.419785795738647</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51.340831400867664</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.261176946689801</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.180936598918677</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.100219013948383</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.019127536368885</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.937760390227467</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.856210864222859</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.774567491013244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.692914220814075</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.611330589456536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.529891881072572</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.448669285567533</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.367730051036844</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50.287137631278604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>50.206951828549492</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>50.127228931707243</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.048021849878594</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49.969380241787725</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.891350640876233</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.813976576341801</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>49.737298690219113</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.661354850622878</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.586180261269448</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.51180756738993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49.438266958144609</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.365586265645085</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.293791060687603</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.222904745297853</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>49.152948642184747</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>49.083942081197641</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49.015902482878921</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.948845439200944</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.882784791573911</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.817732706208517</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.753699746914997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48.690694945417498</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>48.62872586926067</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>48.567798687382854</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>48.507918233428278</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>48.449088066868285</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48.391310531999864</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48.334586814887388</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>48.278916998311828</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48.224300114789592</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>48.170734197721394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48.118216330729773</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>48.066742695242127</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>48.016308616374367</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47.966908607168811</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>47.918536411238229</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>47.87118504386639</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>47.824846831614067</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47.779513450477921</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>47.735175962648235</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47.691824851910248</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47.649450057732281</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47.608041008082751</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47.567586651016811</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47.528075485072144</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47.489495588512249</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>47.451834647454433</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>47.415079982918591</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>47.37921857683174</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>47.344237097022258</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>47.310121921236764</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47.276859160211487</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>47.24443467982919</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>47.21283412239152</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>47.182042927036044</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>47.152046349326071</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>47.122829480040679</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>47.094377263191511</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>47.066674513291979</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>47.039705931903896</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>47.013456123485696</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46.987909610565644</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46.963050848262803</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>46.938864238177764</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>46.915334141674499</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>46.892444892574019</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46.87018080927988</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46.848526206355039</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46.827465405568809</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.806982746432226</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46.787062596239522</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46.767689359632804</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46.748847487706591</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46.730521486668273</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46.712695926070111</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>46.695355446627843</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>46.678484767640576</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>46.66206869402609</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>46.646092122985344</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46.630540050309399</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>46.615397576341714</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>46.600649911608265</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>46.586282382127528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="72545024"/>
+        <c:axId val="72539136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72545024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t(y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72539136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72539136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Masse Am241 (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4442826149621471E-2"/>
+              <c:y val="0.24814058518271417"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72545024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9775006447893434E-2"/>
+          <c:y val="0.64236366758716257"/>
+          <c:w val="0.31440338021331155"/>
+          <c:h val="0.33006389517795703"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8683,7 +10088,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Graph6"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8694,7 +10099,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Graph7"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8833,7 +10238,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6069135"/>
+    <xdr:ext cx="9286875" cy="6072188"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -8860,7 +10265,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6069135"/>
+    <xdr:ext cx="9286875" cy="6072188"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -8883,3073 +10288,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Données"/>
-      <sheetName val="Eq_de_Bateman_avec_RK1"/>
-      <sheetName val="Pu238"/>
-      <sheetName val="Pu239"/>
-      <sheetName val="Pu240"/>
-      <sheetName val="Pu241"/>
-      <sheetName val="Pu242"/>
-      <sheetName val="Am241"/>
-      <sheetName val="U235"/>
-      <sheetName val="U238"/>
-      <sheetName val="M.Pu"/>
-      <sheetName val="V.Pu"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>N(Pu238)</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>N(Pu239)</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>N(Pu240)</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>N(Pu241)</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>N(Pu242)</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>N(Am241)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>19.041708027546772</v>
-          </cell>
-          <cell r="K2">
-            <v>3461.5820803761339</v>
-          </cell>
-          <cell r="M2">
-            <v>1154.5288235649409</v>
-          </cell>
-          <cell r="O2">
-            <v>241.52903340204062</v>
-          </cell>
-          <cell r="Q2">
-            <v>82.180003066254471</v>
-          </cell>
-          <cell r="S2">
-            <v>52.114148285917473</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-          <cell r="I3">
-            <v>18.750445451453256</v>
-          </cell>
-          <cell r="K3">
-            <v>3456.2096630413403</v>
-          </cell>
-          <cell r="M3">
-            <v>1159.4273122240702</v>
-          </cell>
-          <cell r="O3">
-            <v>239.13606682510991</v>
-          </cell>
-          <cell r="Q3">
-            <v>82.572351898549726</v>
-          </cell>
-          <cell r="S3">
-            <v>52.215626493826136</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="I4">
-            <v>18.463638037055841</v>
-          </cell>
-          <cell r="K4">
-            <v>3450.7823416090964</v>
-          </cell>
-          <cell r="M4">
-            <v>1164.2697147419174</v>
-          </cell>
-          <cell r="O4">
-            <v>236.82893777726181</v>
-          </cell>
-          <cell r="Q4">
-            <v>82.953295984375515</v>
-          </cell>
-          <cell r="S4">
-            <v>52.305756789460467</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>0.25</v>
-          </cell>
-          <cell r="I5">
-            <v>18.181217638058474</v>
-          </cell>
-          <cell r="K5">
-            <v>3445.3015491823753</v>
-          </cell>
-          <cell r="M5">
-            <v>1169.056227166305</v>
-          </cell>
-          <cell r="O5">
-            <v>234.60502213411706</v>
-          </cell>
-          <cell r="Q5">
-            <v>83.323227790595112</v>
-          </cell>
-          <cell r="S5">
-            <v>52.385075265916065</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="I6">
-            <v>17.903117150533038</v>
-          </cell>
-          <cell r="K6">
-            <v>3439.7686910504649</v>
-          </cell>
-          <cell r="M6">
-            <v>1173.7870496161356</v>
-          </cell>
-          <cell r="O6">
-            <v>232.46177021797669</v>
-          </cell>
-          <cell r="Q6">
-            <v>83.682527513046196</v>
-          </cell>
-          <cell r="S6">
-            <v>52.454098460488972</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>0.41666666666666669</v>
-          </cell>
-          <cell r="I7">
-            <v>17.629270496975245</v>
-          </cell>
-          <cell r="K7">
-            <v>3434.1851452100532</v>
-          </cell>
-          <cell r="M7">
-            <v>1178.462386145304</v>
-          </cell>
-          <cell r="O7">
-            <v>230.39670472239567</v>
-          </cell>
-          <cell r="Q7">
-            <v>84.031563431753412</v>
-          </cell>
-          <cell r="S7">
-            <v>52.513323982244337</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>0.5</v>
-          </cell>
-          <cell r="I8">
-            <v>17.35961261060443</v>
-          </cell>
-          <cell r="K8">
-            <v>3428.5522628766116</v>
-          </cell>
-          <cell r="M8">
-            <v>1183.0824446095935</v>
-          </cell>
-          <cell r="O8">
-            <v>228.40741869452955</v>
-          </cell>
-          <cell r="Q8">
-            <v>84.370692256156588</v>
-          </cell>
-          <cell r="S8">
-            <v>52.563231120710348</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0.58333333333333337</v>
-          </cell>
-          <cell r="I9">
-            <v>17.094079419903494</v>
-          </cell>
-          <cell r="K9">
-            <v>3422.8713689862557</v>
-          </cell>
-          <cell r="M9">
-            <v>1187.6474365364954</v>
-          </cell>
-          <cell r="O9">
-            <v>226.4915735736426</v>
-          </cell>
-          <cell r="Q9">
-            <v>84.700259460633049</v>
-          </cell>
-          <cell r="S9">
-            <v>52.604281436246481</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.66666666666666663</v>
-          </cell>
-          <cell r="I10">
-            <v>16.832607833395311</v>
-          </cell>
-          <cell r="K10">
-            <v>3417.1437626882571</v>
-          </cell>
-          <cell r="M10">
-            <v>1192.1575769978961</v>
-          </cell>
-          <cell r="O10">
-            <v>224.64689728421124</v>
-          </cell>
-          <cell r="Q10">
-            <v>85.020599610584924</v>
-          </cell>
-          <cell r="S10">
-            <v>52.636919332619222</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>0.75</v>
-          </cell>
-          <cell r="I11">
-            <v>16.575135724652014</v>
-          </cell>
-          <cell r="K11">
-            <v>3411.3707178283858</v>
-          </cell>
-          <cell r="M11">
-            <v>1196.6130844855725</v>
-          </cell>
-          <cell r="O11">
-            <v>222.87118238210053</v>
-          </cell>
-          <cell r="Q11">
-            <v>85.332036679354502</v>
-          </cell>
-          <cell r="S11">
-            <v>52.661572612303303</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0.83333333333333337</v>
-          </cell>
-          <cell r="I12">
-            <v>16.32160191753357</v>
-          </cell>
-          <cell r="K12">
-            <v>3405.5534834232494</v>
-          </cell>
-          <cell r="M12">
-            <v>1201.014180789444</v>
-          </cell>
-          <cell r="O12">
-            <v>221.16228425233359</v>
-          </cell>
-          <cell r="Q12">
-            <v>85.634884356223708</v>
-          </cell>
-          <cell r="S12">
-            <v>52.678653015011633</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.91666666666666663</v>
-          </cell>
-          <cell r="I13">
-            <v>16.071946171652137</v>
-          </cell>
-          <cell r="K13">
-            <v>3399.6932841257981</v>
-          </cell>
-          <cell r="M13">
-            <v>1205.3610908785229</v>
-          </cell>
-          <cell r="O13">
-            <v>219.51811935701539</v>
-          </cell>
-          <cell r="Q13">
-            <v>85.929446345746186</v>
-          </cell>
-          <cell r="S13">
-            <v>52.688556739942761</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-          <cell r="I14">
-            <v>15.826109168058776</v>
-          </cell>
-          <cell r="K14">
-            <v>3393.7913206821572</v>
-          </cell>
-          <cell r="M14">
-            <v>1209.6540427845123</v>
-          </cell>
-          <cell r="O14">
-            <v>217.9366635320126</v>
-          </cell>
-          <cell r="Q14">
-            <v>86.216016658654027</v>
-          </cell>
-          <cell r="S14">
-            <v>52.69166495222062</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>1.0833333333333333</v>
-          </cell>
-          <cell r="I15">
-            <v>15.584032495149099</v>
-          </cell>
-          <cell r="K15">
-            <v>3387.8487703799547</v>
-          </cell>
-          <cell r="M15">
-            <v>1213.8932674879975</v>
-          </cell>
-          <cell r="O15">
-            <v>216.41595033103025</v>
-          </cell>
-          <cell r="Q15">
-            <v>86.494879894574098</v>
-          </cell>
-          <cell r="S15">
-            <v>52.688344273987852</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1.1666666666666667</v>
-          </cell>
-          <cell r="I16">
-            <v>15.345658634784485</v>
-          </cell>
-          <cell r="K16">
-            <v>3381.8667874882931</v>
-          </cell>
-          <cell r="M16">
-            <v>1218.0789988071806</v>
-          </cell>
-          <cell r="O16">
-            <v>214.95406941576371</v>
-          </cell>
-          <cell r="Q16">
-            <v>86.766311516782352</v>
-          </cell>
-          <cell r="S16">
-            <v>52.678947260600694</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>1.25</v>
-          </cell>
-          <cell r="I17">
-            <v>15.110930948625604</v>
-          </cell>
-          <cell r="K17">
-            <v>3375.8465036895295</v>
-          </cell>
-          <cell r="M17">
-            <v>1222.2114732891077</v>
-          </cell>
-          <cell r="O17">
-            <v>213.54916499084192</v>
-          </cell>
-          <cell r="Q17">
-            <v>87.030578119218546</v>
-          </cell>
-          <cell r="S17">
-            <v>52.663812862360679</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>1.3333333333333333</v>
-          </cell>
-          <cell r="I18">
-            <v>14.879793664674983</v>
-          </cell>
-          <cell r="K18">
-            <v>3369.7890285030103</v>
-          </cell>
-          <cell r="M18">
-            <v>1226.290930103338</v>
-          </cell>
-          <cell r="O18">
-            <v>212.19943428231281</v>
-          </cell>
-          <cell r="Q18">
-            <v>87.287937685976942</v>
-          </cell>
-          <cell r="S18">
-            <v>52.643266872205793</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>1.4166666666666667</v>
-          </cell>
-          <cell r="I19">
-            <v>14.652191864025403</v>
-          </cell>
-          <cell r="K19">
-            <v>3363.695449700911</v>
-          </cell>
-          <cell r="M19">
-            <v>1230.3176109380088</v>
-          </cell>
-          <cell r="O19">
-            <v>210.90312605845784</v>
-          </cell>
-          <cell r="Q19">
-            <v>87.538639843483267</v>
-          </cell>
-          <cell r="S19">
-            <v>52.617622359771829</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>1.5</v>
-          </cell>
-          <cell r="I20">
-            <v>14.428071467811014</v>
-          </cell>
-          <cell r="K20">
-            <v>3357.5668337163315</v>
-          </cell>
-          <cell r="M20">
-            <v>1234.2917598982451</v>
-          </cell>
-          <cell r="O20">
-            <v>209.65853919175564</v>
-          </cell>
-          <cell r="Q20">
-            <v>87.782926105561714</v>
-          </cell>
-          <cell r="S20">
-            <v>52.587180092222702</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.5833333333333333</v>
-          </cell>
-          <cell r="I21">
-            <v>14.20737922435803</v>
-          </cell>
-          <cell r="K21">
-            <v>3351.4042260437868</v>
-          </cell>
-          <cell r="M21">
-            <v>1238.2136234068719</v>
-          </cell>
-          <cell r="O21">
-            <v>208.46402126084777</v>
-          </cell>
-          <cell r="Q21">
-            <v>88.021030111590505</v>
-          </cell>
-          <cell r="S21">
-            <v>52.552228942237186</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>1.6666666666666667</v>
-          </cell>
-          <cell r="I22">
-            <v>13.990062696531973</v>
-          </cell>
-          <cell r="K22">
-            <v>3345.2086516322356</v>
-          </cell>
-          <cell r="M22">
-            <v>1242.083450107378</v>
-          </cell>
-          <cell r="O22">
-            <v>207.31796719139234</v>
-          </cell>
-          <cell r="Q22">
-            <v>88.253177857938852</v>
-          </cell>
-          <cell r="S22">
-            <v>52.513046283528396</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>1.75</v>
-          </cell>
-          <cell r="I23">
-            <v>13.776070249278455</v>
-          </cell>
-          <cell r="K23">
-            <v>3338.981115270788</v>
-          </cell>
-          <cell r="M23">
-            <v>1245.9014907690919</v>
-          </cell>
-          <cell r="O23">
-            <v>206.21881793472136</v>
-          </cell>
-          <cell r="Q23">
-            <v>88.47958792287271</v>
-          </cell>
-          <cell r="S23">
-            <v>52.469898374261504</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>1.8333333333333333</v>
-          </cell>
-          <cell r="I24">
-            <v>13.565351037354532</v>
-          </cell>
-          <cell r="K24">
-            <v>3332.7226019672235</v>
-          </cell>
-          <cell r="M24">
-            <v>1249.6679981945204</v>
-          </cell>
-          <cell r="O24">
-            <v>205.16505918324884</v>
-          </cell>
-          <cell r="Q24">
-            <v>88.700471685111708</v>
-          </cell>
-          <cell r="S24">
-            <v>52.423040728724715</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>1.9166666666666667</v>
-          </cell>
-          <cell r="I25">
-            <v>13.357854993247727</v>
-          </cell>
-          <cell r="K25">
-            <v>3326.4340773194576</v>
-          </cell>
-          <cell r="M25">
-            <v>1253.3832271288106</v>
-          </cell>
-          <cell r="O25">
-            <v>204.15522012160537</v>
-          </cell>
-          <cell r="Q25">
-            <v>88.916033536214243</v>
-          </cell>
-          <cell r="S25">
-            <v>52.372718477598397</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>2</v>
-          </cell>
-          <cell r="I26">
-            <v>13.15353281527984</v>
-          </cell>
-          <cell r="K26">
-            <v>3320.1164878800864</v>
-          </cell>
-          <cell r="M26">
-            <v>1257.047434171292</v>
-          </cell>
-          <cell r="O26">
-            <v>203.1878722125042</v>
-          </cell>
-          <cell r="Q26">
-            <v>89.126471086963136</v>
-          </cell>
-          <cell r="S26">
-            <v>52.319166717157202</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>2.0833333333333335</v>
-          </cell>
-          <cell r="I27">
-            <v>12.952335955892716</v>
-          </cell>
-          <cell r="K27">
-            <v>3313.7707615141376</v>
-          </cell>
-          <cell r="M27">
-            <v>1260.660877689055</v>
-          </cell>
-          <cell r="O27">
-            <v>202.26162801637091</v>
-          </cell>
-          <cell r="Q27">
-            <v>89.331975367919171</v>
-          </cell>
-          <cell r="S27">
-            <v>52.262610847730613</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>2.1666666666666665</v>
-          </cell>
-          <cell r="I28">
-            <v>12.754216610113208</v>
-          </cell>
-          <cell r="K28">
-            <v>3307.3978077501538</v>
-          </cell>
-          <cell r="M28">
-            <v>1264.2238177325276</v>
-          </cell>
-          <cell r="O28">
-            <v>201.37514004379634</v>
-          </cell>
-          <cell r="Q28">
-            <v>89.532731024305278</v>
-          </cell>
-          <cell r="S28">
-            <v>52.203266901737777</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>2.25</v>
-          </cell>
-          <cell r="I29">
-            <v>12.559127704194568</v>
-          </cell>
-          <cell r="K29">
-            <v>3300.9985181247334</v>
-          </cell>
-          <cell r="M29">
-            <v>1267.7365159530098</v>
-          </cell>
-          <cell r="O29">
-            <v>200.52709963989849</v>
-          </cell>
-          <cell r="Q29">
-            <v>89.728916505379701</v>
-          </cell>
-          <cell r="S29">
-            <v>52.141341861603564</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>2.3333333333333335</v>
-          </cell>
-          <cell r="I30">
-            <v>12.367022884431588</v>
-          </cell>
-          <cell r="K30">
-            <v>3294.5737665206511</v>
-          </cell>
-          <cell r="M30">
-            <v>1271.1992355221246</v>
-          </cell>
-          <cell r="O30">
-            <v>199.71623589970457</v>
-          </cell>
-          <cell r="Q30">
-            <v>89.920704248451784</v>
-          </cell>
-          <cell r="S30">
-            <v>52.077033967853936</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>2.4166666666666665</v>
-          </cell>
-          <cell r="I31">
-            <v>12.177856506146821</v>
-          </cell>
-          <cell r="K31">
-            <v>3288.1244094986737</v>
-          </cell>
-          <cell r="M31">
-            <v>1274.6122410531495</v>
-          </cell>
-          <cell r="O31">
-            <v>198.94131461368926</v>
-          </cell>
-          <cell r="Q31">
-            <v>90.108260857690084</v>
-          </cell>
-          <cell r="S31">
-            <v>52.010533017680039</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>2.5</v>
-          </cell>
-          <cell r="I32">
-            <v>11.991583622845265</v>
-          </cell>
-          <cell r="K32">
-            <v>3281.6512866231951</v>
-          </cell>
-          <cell r="M32">
-            <v>1277.9757985241897</v>
-          </cell>
-          <cell r="O32">
-            <v>198.20113724262941</v>
-          </cell>
-          <cell r="Q32">
-            <v>90.291747277868069</v>
-          </cell>
-          <cell r="S32">
-            <v>51.942020654252261</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>2.5833333333333335</v>
-          </cell>
-          <cell r="I33">
-            <v>11.80815997553495</v>
-          </cell>
-          <cell r="K33">
-            <v>3275.1552207817972</v>
-          </cell>
-          <cell r="M33">
-            <v>1281.2901752031548</v>
-          </cell>
-          <cell r="O33">
-            <v>197.49453992095891</v>
-          </cell>
-          <cell r="Q33">
-            <v>90.471318963188736</v>
-          </cell>
-          <cell r="S33">
-            <v>51.87167064705725</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>2.6666666666666665</v>
-          </cell>
-          <cell r="I34">
-            <v>11.627541982210865</v>
-          </cell>
-          <cell r="K34">
-            <v>3268.6370184988568</v>
-          </cell>
-          <cell r="M34">
-            <v>1284.555639574505</v>
-          </cell>
-          <cell r="O34">
-            <v>196.82039248782982</v>
-          </cell>
-          <cell r="Q34">
-            <v>90.647126041325507</v>
-          </cell>
-          <cell r="S34">
-            <v>51.799649163523171</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>2.75</v>
-          </cell>
-          <cell r="I35">
-            <v>11.449686727499738</v>
-          </cell>
-          <cell r="K35">
-            <v>3262.0974702433068</v>
-          </cell>
-          <cell r="M35">
-            <v>1287.7724612677289</v>
-          </cell>
-          <cell r="O35">
-            <v>196.1775975451086</v>
-          </cell>
-          <cell r="Q35">
-            <v>90.81931347281305</v>
-          </cell>
-          <cell r="S35">
-            <v>51.726115032190648</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>2.8333333333333335</v>
-          </cell>
-          <cell r="I36">
-            <v>11.274551952463229</v>
-          </cell>
-          <cell r="K36">
-            <v>3255.5373507306576</v>
-          </cell>
-          <cell r="M36">
-            <v>1290.9409109875203</v>
-          </cell>
-          <cell r="O36">
-            <v>195.56508954155748</v>
-          </cell>
-          <cell r="Q36">
-            <v>90.98802120591769</v>
-          </cell>
-          <cell r="S36">
-            <v>51.651219997679682</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>2.9166666666666665</v>
-          </cell>
-          <cell r="I37">
-            <v>11.102096044557069</v>
-          </cell>
-          <cell r="K37">
-            <v>3248.95741921939</v>
-          </cell>
-          <cell r="M37">
-            <v>1294.0612604456169</v>
-          </cell>
-          <cell r="O37">
-            <v>194.98183388247202</v>
-          </cell>
-          <cell r="Q37">
-            <v>91.153384327113812</v>
-          </cell>
-          <cell r="S37">
-            <v>51.575108967695336</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>3</v>
-          </cell>
-          <cell r="I38">
-            <v>10.932278027743799</v>
-          </cell>
-          <cell r="K38">
-            <v>3242.3584198018202</v>
-          </cell>
-          <cell r="M38">
-            <v>1297.1337822942698</v>
-          </cell>
-          <cell r="O38">
-            <v>194.42682606406598</v>
-          </cell>
-          <cell r="Q38">
-            <v>91.315533207288738</v>
-          </cell>
-          <cell r="S38">
-            <v>51.497920252308184</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>3.0833333333333335</v>
-          </cell>
-          <cell r="I39">
-            <v>10.765057552756744</v>
-          </cell>
-          <cell r="K39">
-            <v>3235.7410816895444</v>
-          </cell>
-          <cell r="M39">
-            <v>1300.1587500613093</v>
-          </cell>
-          <cell r="O39">
-            <v>193.89909083191495</v>
-          </cell>
-          <cell r="Q39">
-            <v>91.474593643795529</v>
-          </cell>
-          <cell r="S39">
-            <v>51.419785795738647</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>3.1666666666666665</v>
-          </cell>
-          <cell r="I40">
-            <v>10.600394887512904</v>
-          </cell>
-          <cell r="K40">
-            <v>3229.1061194935592</v>
-          </cell>
-          <cell r="M40">
-            <v>1303.1364380867753</v>
-          </cell>
-          <cell r="O40">
-            <v>193.39768136278906</v>
-          </cell>
-          <cell r="Q40">
-            <v>91.630686998469628</v>
-          </cell>
-          <cell r="S40">
-            <v>51.340831400867664</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>3.25</v>
-          </cell>
-          <cell r="I41">
-            <v>10.438250907672492</v>
-          </cell>
-          <cell r="K41">
-            <v>3222.4542334991579</v>
-          </cell>
-          <cell r="M41">
-            <v>1306.0671214610804</v>
-          </cell>
-          <cell r="O41">
-            <v>192.92167846922351</v>
-          </cell>
-          <cell r="Q41">
-            <v>91.783930331722004</v>
-          </cell>
-          <cell r="S41">
-            <v>51.261176946689801</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>3.3333333333333335</v>
-          </cell>
-          <cell r="I42">
-            <v>10.27858708734288</v>
-          </cell>
-          <cell r="K42">
-            <v>3215.7861099357037</v>
-          </cell>
-          <cell r="M42">
-            <v>1308.9510759646739</v>
-          </cell>
-          <cell r="O42">
-            <v>192.47018982619463</v>
-          </cell>
-          <cell r="Q42">
-            <v>91.934436532818424</v>
-          </cell>
-          <cell r="S42">
-            <v>51.180936598918677</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>3.4166666666666665</v>
-          </cell>
-          <cell r="I43">
-            <v>10.121365489924724</v>
-          </cell>
-          <cell r="K43">
-            <v>3209.1024212413695</v>
-          </cell>
-          <cell r="M43">
-            <v>1311.7885780091783</v>
-          </cell>
-          <cell r="O43">
-            <v>192.0423492192858</v>
-          </cell>
-          <cell r="Q43">
-            <v>92.08231444645142</v>
-          </cell>
-          <cell r="S43">
-            <v>51.100219013948383</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>3.5</v>
-          </cell>
-          <cell r="I44">
-            <v>9.9665487590981208</v>
-          </cell>
-          <cell r="K44">
-            <v>3202.4038263229404</v>
-          </cell>
-          <cell r="M44">
-            <v>1314.5799045799654</v>
-          </cell>
-          <cell r="O44">
-            <v>191.63731581374569</v>
-          </cell>
-          <cell r="Q44">
-            <v>92.227668995708441</v>
-          </cell>
-          <cell r="S44">
-            <v>51.019127536368885</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>3.5833333333333335</v>
-          </cell>
-          <cell r="I45">
-            <v>9.814100109946633</v>
-          </cell>
-          <cell r="K45">
-            <v>3195.6909708107737</v>
-          </cell>
-          <cell r="M45">
-            <v>1317.3253331801445</v>
-          </cell>
-          <cell r="O45">
-            <v>191.25427344385722</v>
-          </cell>
-          <cell r="Q45">
-            <v>92.370601301536979</v>
-          </cell>
-          <cell r="S45">
-            <v>50.937760390227467</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>3.6666666666666665</v>
-          </cell>
-          <cell r="I46">
-            <v>9.6639833202170831</v>
-          </cell>
-          <cell r="K46">
-            <v>3188.9644873090006</v>
-          </cell>
-          <cell r="M46">
-            <v>1320.0251417759346</v>
-          </cell>
-          <cell r="O46">
-            <v>190.89242992205243</v>
-          </cell>
-          <cell r="Q46">
-            <v>92.511208798804404</v>
-          </cell>
-          <cell r="S46">
-            <v>50.856210864222859</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>3.75</v>
-          </cell>
-          <cell r="I47">
-            <v>9.5161627217130409</v>
-          </cell>
-          <cell r="K47">
-            <v>3182.2249956410624</v>
-          </cell>
-          <cell r="M47">
-            <v>1322.6796087433895</v>
-          </cell>
-          <cell r="O47">
-            <v>190.55101636722361</v>
-          </cell>
-          <cell r="Q47">
-            <v>92.649585349047797</v>
-          </cell>
-          <cell r="S47">
-            <v>50.774567491013244</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>3.8333333333333335</v>
-          </cell>
-          <cell r="I48">
-            <v>9.3706031918199493</v>
-          </cell>
-          <cell r="K48">
-            <v>3175.4731030906673</v>
-          </cell>
-          <cell r="M48">
-            <v>1325.2890128164518</v>
-          </cell>
-          <cell r="O48">
-            <v>190.22928655169702</v>
-          </cell>
-          <cell r="Q48">
-            <v>92.785821350006202</v>
-          </cell>
-          <cell r="S48">
-            <v>50.692914220814075</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>3.9166666666666665</v>
-          </cell>
-          <cell r="I49">
-            <v>9.2272701451598902</v>
-          </cell>
-          <cell r="K49">
-            <v>3168.7094046382513</v>
-          </cell>
-          <cell r="M49">
-            <v>1327.8536330363047</v>
-          </cell>
-          <cell r="O49">
-            <v>189.92651626634989</v>
-          </cell>
-          <cell r="Q49">
-            <v>92.920003842025281</v>
-          </cell>
-          <cell r="S49">
-            <v>50.611330589456536</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>4</v>
-          </cell>
-          <cell r="I50">
-            <v>9.0861295253739929</v>
-          </cell>
-          <cell r="K50">
-            <v>3161.9344831930289</v>
-          </cell>
-          <cell r="M50">
-            <v>1330.3737487019991</v>
-          </cell>
-          <cell r="O50">
-            <v>189.64200270336613</v>
-          </cell>
-          <cell r="Q50">
-            <v>93.052216611421684</v>
-          </cell>
-          <cell r="S50">
-            <v>50.529891881072572</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>4.083333333333333</v>
-          </cell>
-          <cell r="I51">
-            <v>8.947147797030544</v>
-          </cell>
-          <cell r="K51">
-            <v>3155.1489098207144</v>
-          </cell>
-          <cell r="M51">
-            <v>1332.8496393223259</v>
-          </cell>
-          <cell r="O51">
-            <v>189.37506385614017</v>
-          </cell>
-          <cell r="Q51">
-            <v>93.182540290892277</v>
-          </cell>
-          <cell r="S51">
-            <v>50.448669285567533</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>4.166666666666667</v>
-          </cell>
-          <cell r="I52">
-            <v>8.8102919376568671</v>
-          </cell>
-          <cell r="K52">
-            <v>3148.3532439669953</v>
-          </cell>
-          <cell r="M52">
-            <v>1335.2815845689104</v>
-          </cell>
-          <cell r="O52">
-            <v>189.12503793585208</v>
-          </cell>
-          <cell r="Q52">
-            <v>93.311052457050735</v>
-          </cell>
-          <cell r="S52">
-            <v>50.367730051036844</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>4.25</v>
-          </cell>
-          <cell r="I53">
-            <v>8.6755294298930892</v>
-          </cell>
-          <cell r="K53">
-            <v>3141.5480336768351</v>
-          </cell>
-          <cell r="M53">
-            <v>1337.6698642305039</v>
-          </cell>
-          <cell r="O53">
-            <v>188.89128280425041</v>
-          </cell>
-          <cell r="Q53">
-            <v>93.437827725171886</v>
-          </cell>
-          <cell r="S53">
-            <v>50.287137631278604</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>4.333333333333333</v>
-          </cell>
-          <cell r="I54">
-            <v>8.5428282537659115</v>
-          </cell>
-          <cell r="K54">
-            <v>3134.733815809685</v>
-          </cell>
-          <cell r="M54">
-            <v>1340.0147581684455</v>
-          </cell>
-          <cell r="O54">
-            <v>188.673175422192</v>
-          </cell>
-          <cell r="Q54">
-            <v>93.562937841221796</v>
-          </cell>
-          <cell r="S54">
-            <v>50.206951828549492</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>4.416666666666667</v>
-          </cell>
-          <cell r="I55">
-            <v>8.4121568790805767</v>
-          </cell>
-          <cell r="K55">
-            <v>3127.9111162506802</v>
-          </cell>
-          <cell r="M55">
-            <v>1342.3165462732723</v>
-          </cell>
-          <cell r="O55">
-            <v>188.47011131350075</v>
-          </cell>
-          <cell r="Q55">
-            <v>93.686451771249679</v>
-          </cell>
-          <cell r="S55">
-            <v>50.127228931707243</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>4.5</v>
-          </cell>
-          <cell r="I56">
-            <v>8.2834842579291923</v>
-          </cell>
-          <cell r="K56">
-            <v>3121.0804501178945</v>
-          </cell>
-          <cell r="M56">
-            <v>1344.5755084224525</v>
-          </cell>
-          <cell r="O56">
-            <v>188.28150404371942</v>
-          </cell>
-          <cell r="Q56">
-            <v>93.808435788215235</v>
-          </cell>
-          <cell r="S56">
-            <v>50.048021849878594</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>4.583333333333333</v>
-          </cell>
-          <cell r="I57">
-            <v>8.1567798173136641</v>
-          </cell>
-          <cell r="K57">
-            <v>3114.2423219657271</v>
-          </cell>
-          <cell r="M57">
-            <v>1346.7919244392203</v>
-          </cell>
-          <cell r="O57">
-            <v>188.10678471334049</v>
-          </cell>
-          <cell r="Q57">
-            <v>93.928953556323293</v>
-          </cell>
-          <cell r="S57">
-            <v>49.969380241787725</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>4.666666666666667</v>
-          </cell>
-          <cell r="I58">
-            <v>8.0320134518814523</v>
-          </cell>
-          <cell r="K58">
-            <v>3107.397225984495</v>
-          </cell>
-          <cell r="M58">
-            <v>1348.9660740524878</v>
-          </cell>
-          <cell r="O58">
-            <v>187.94540146511355</v>
-          </cell>
-          <cell r="Q58">
-            <v>94.048066212935439</v>
-          </cell>
-          <cell r="S58">
-            <v>49.891350640876233</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>4.75</v>
-          </cell>
-          <cell r="I59">
-            <v>7.9091555167724579</v>
-          </cell>
-          <cell r="K59">
-            <v>3100.5456461962981</v>
-          </cell>
-          <cell r="M59">
-            <v>1351.0982368578111</v>
-          </cell>
-          <cell r="O59">
-            <v>187.79681900503795</v>
-          </cell>
-          <cell r="Q59">
-            <v>94.165832448126494</v>
-          </cell>
-          <cell r="S59">
-            <v>49.813976576341801</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>4.833333333333333</v>
-          </cell>
-          <cell r="I60">
-            <v>7.788176820575309</v>
-          </cell>
-          <cell r="K60">
-            <v>3093.6880566472314</v>
-          </cell>
-          <cell r="M60">
-            <v>1353.1886922793926</v>
-          </cell>
-          <cell r="O60">
-            <v>187.66051813666056</v>
-          </cell>
-          <cell r="Q60">
-            <v>94.282308581951668</v>
-          </cell>
-          <cell r="S60">
-            <v>49.737298690219113</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>4.916666666666667</v>
-          </cell>
-          <cell r="I61">
-            <v>7.6690486183913995</v>
-          </cell>
-          <cell r="K61">
-            <v>3086.8249215960068</v>
-          </cell>
-          <cell r="M61">
-            <v>1355.2377195330926</v>
-          </cell>
-          <cell r="O61">
-            <v>187.53599530830854</v>
-          </cell>
-          <cell r="Q61">
-            <v>94.397548639488605</v>
-          </cell>
-          <cell r="S61">
-            <v>49.661354850622878</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>5</v>
-          </cell>
-          <cell r="I62">
-            <v>7.5517426050050114</v>
-          </cell>
-          <cell r="K62">
-            <v>3079.9566956990561</v>
-          </cell>
-          <cell r="M62">
-            <v>1357.2455975904331</v>
-          </cell>
-          <cell r="O62">
-            <v>187.42276217289796</v>
-          </cell>
-          <cell r="Q62">
-            <v>94.511604423716435</v>
-          </cell>
-          <cell r="S62">
-            <v>49.586180261269448</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>5.083333333333333</v>
-          </cell>
-          <cell r="I63">
-            <v>7.4362309081579143</v>
-          </cell>
-          <cell r="K63">
-            <v>3073.0838241921761</v>
-          </cell>
-          <cell r="M63">
-            <v>1359.2126051435719</v>
-          </cell>
-          <cell r="O63">
-            <v>187.32034515996878</v>
-          </cell>
-          <cell r="Q63">
-            <v>94.624525586292592</v>
-          </cell>
-          <cell r="S63">
-            <v>49.51180756738993</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>5.166666666666667</v>
-          </cell>
-          <cell r="I64">
-            <v>7.3224860819268329</v>
-          </cell>
-          <cell r="K64">
-            <v>3066.2067430687857</v>
-          </cell>
-          <cell r="M64">
-            <v>1361.1390205712255</v>
-          </cell>
-          <cell r="O64">
-            <v>187.22828505960632</v>
-          </cell>
-          <cell r="Q64">
-            <v>94.736359696286144</v>
-          </cell>
-          <cell r="S64">
-            <v>49.438266958144609</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>5.25</v>
-          </cell>
-          <cell r="I65">
-            <v>7.2104811002022133</v>
-          </cell>
-          <cell r="K65">
-            <v>3059.3258792548527</v>
-          </cell>
-          <cell r="M65">
-            <v>1363.0251219055233</v>
-          </cell>
-          <cell r="O65">
-            <v>187.14613661791924</v>
-          </cell>
-          <cell r="Q65">
-            <v>94.847152306924897</v>
-          </cell>
-          <cell r="S65">
-            <v>49.365586265645085</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>5.333333333333333</v>
-          </cell>
-          <cell r="I66">
-            <v>7.1001893502667395</v>
-          </cell>
-          <cell r="K66">
-            <v>3052.4416507805549</v>
-          </cell>
-          <cell r="M66">
-            <v>1364.8711867997717</v>
-          </cell>
-          <cell r="O66">
-            <v>187.07346814375273</v>
-          </cell>
-          <cell r="Q66">
-            <v>94.956947020412017</v>
-          </cell>
-          <cell r="S66">
-            <v>49.293791060687603</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>5.416666666666667</v>
-          </cell>
-          <cell r="I67">
-            <v>6.9915846264720711</v>
-          </cell>
-          <cell r="K67">
-            <v>3045.5544669487367</v>
-          </cell>
-          <cell r="M67">
-            <v>1366.6774924971101</v>
-          </cell>
-          <cell r="O67">
-            <v>187.00986112632518</v>
-          </cell>
-          <cell r="Q67">
-            <v>95.065785550866082</v>
-          </cell>
-          <cell r="S67">
-            <v>49.222904745297853</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>5.5</v>
-          </cell>
-          <cell r="I68">
-            <v>6.8846411240123064</v>
-          </cell>
-          <cell r="K68">
-            <v>3038.6647285002196</v>
-          </cell>
-          <cell r="M68">
-            <v>1368.4443158000379</v>
-          </cell>
-          <cell r="O68">
-            <v>186.95490986348443</v>
-          </cell>
-          <cell r="Q68">
-            <v>95.173707785437372</v>
-          </cell>
-          <cell r="S68">
-            <v>49.152948642184747</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>5.583333333333333</v>
-          </cell>
-          <cell r="I69">
-            <v>6.7793334327926802</v>
-          </cell>
-          <cell r="K69">
-            <v>3031.7728277760257</v>
-          </cell>
-          <cell r="M69">
-            <v>1370.1719330407991</v>
-          </cell>
-          <cell r="O69">
-            <v>186.90822110028907</v>
-          </cell>
-          <cell r="Q69">
-            <v>95.280751843651331</v>
-          </cell>
-          <cell r="S69">
-            <v>49.083942081197641</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>5.666666666666667</v>
-          </cell>
-          <cell r="I70">
-            <v>6.6756365313920512</v>
-          </cell>
-          <cell r="K70">
-            <v>3024.8791488765714</v>
-          </cell>
-          <cell r="M70">
-            <v>1371.8606200525999</v>
-          </cell>
-          <cell r="O70">
-            <v>186.86941367762796</v>
-          </cell>
-          <cell r="Q70">
-            <v>95.386954135029072</v>
-          </cell>
-          <cell r="S70">
-            <v>49.015902482878921</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>5.75</v>
-          </cell>
-          <cell r="I71">
-            <v>6.5735257811177368</v>
-          </cell>
-          <cell r="K71">
-            <v>3017.9840678178884</v>
-          </cell>
-          <cell r="M71">
-            <v>1373.5106521416465</v>
-          </cell>
-          <cell r="O71">
-            <v>186.83811819059906</v>
-          </cell>
-          <cell r="Q71">
-            <v>95.492349415033104</v>
-          </cell>
-          <cell r="S71">
-            <v>48.948845439200944</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>5.833333333333333</v>
-          </cell>
-          <cell r="I72">
-            <v>6.4729769201512894</v>
-          </cell>
-          <cell r="K72">
-            <v>3011.0879526849267</v>
-          </cell>
-          <cell r="M72">
-            <v>1375.1223040599839</v>
-          </cell>
-          <cell r="O72">
-            <v>186.81397665637672</v>
-          </cell>
-          <cell r="Q72">
-            <v>95.596970839385335</v>
-          </cell>
-          <cell r="S72">
-            <v>48.882784791573911</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>5.916666666666667</v>
-          </cell>
-          <cell r="I73">
-            <v>6.3739660577838118</v>
-          </cell>
-          <cell r="K73">
-            <v>3004.1911637819931</v>
-          </cell>
-          <cell r="M73">
-            <v>1376.6958499791197</v>
-          </cell>
-          <cell r="O73">
-            <v>186.79664219130396</v>
-          </cell>
-          <cell r="Q73">
-            <v>95.700850016803045</v>
-          </cell>
-          <cell r="S73">
-            <v>48.817732706208517</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>6</v>
-          </cell>
-          <cell r="I74">
-            <v>6.2764696687394554</v>
-          </cell>
-          <cell r="K74">
-            <v>2997.2940537803815</v>
-          </cell>
-          <cell r="M74">
-            <v>1378.2315634644142</v>
-          </cell>
-          <cell r="O74">
-            <v>186.78577869695357</v>
-          </cell>
-          <cell r="Q74">
-            <v>95.804017060197197</v>
-          </cell>
-          <cell r="S74">
-            <v>48.753699746914997</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>6.083333333333333</v>
-          </cell>
-          <cell r="I75">
-            <v>6.180464587585746</v>
-          </cell>
-          <cell r="K75">
-            <v>2990.3969678632434</v>
-          </cell>
-          <cell r="M75">
-            <v>1379.7297174502226</v>
-          </cell>
-          <cell r="O75">
-            <v>186.78106055490929</v>
-          </cell>
-          <cell r="Q75">
-            <v>95.906500636376165</v>
-          </cell>
-          <cell r="S75">
-            <v>48.690694945417498</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>6.166666666666667</v>
-          </cell>
-          <cell r="I76">
-            <v>6.0859280032294061</v>
-          </cell>
-          <cell r="K76">
-            <v>2983.5002438677525</v>
-          </cell>
-          <cell r="M76">
-            <v>1381.1905842157726</v>
-          </cell>
-          <cell r="O76">
-            <v>186.78217233002454</v>
-          </cell>
-          <cell r="Q76">
-            <v>96.008328014297021</v>
-          </cell>
-          <cell r="S76">
-            <v>48.62872586926067</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>6.25</v>
-          </cell>
-          <cell r="I77">
-            <v>5.9928374534963718</v>
-          </cell>
-          <cell r="K77">
-            <v>2976.6042124246133</v>
-          </cell>
-          <cell r="M77">
-            <v>1382.6144353617613</v>
-          </cell>
-          <cell r="O77">
-            <v>186.78880848192389</v>
-          </cell>
-          <cell r="Q77">
-            <v>96.109525111905015</v>
-          </cell>
-          <cell r="S77">
-            <v>48.567798687382854</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>6.333333333333333</v>
-          </cell>
-          <cell r="I78">
-            <v>5.9011708197947135</v>
-          </cell>
-          <cell r="K78">
-            <v>2969.7091970949637</v>
-          </cell>
-          <cell r="M78">
-            <v>1384.0015417876566</v>
-          </cell>
-          <cell r="O78">
-            <v>186.80067308451831</v>
-          </cell>
-          <cell r="Q78">
-            <v>96.210116541600996</v>
-          </cell>
-          <cell r="S78">
-            <v>48.507918233428278</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>6.416666666666667</v>
-          </cell>
-          <cell r="I79">
-            <v>5.8109063218591928</v>
-          </cell>
-          <cell r="K79">
-            <v>2962.8155145047172</v>
-          </cell>
-          <cell r="M79">
-            <v>1385.3521736696878</v>
-          </cell>
-          <cell r="O79">
-            <v>186.81747955331159</v>
-          </cell>
-          <cell r="Q79">
-            <v>96.31012565437527</v>
-          </cell>
-          <cell r="S79">
-            <v>48.449088066868285</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>6.5</v>
-          </cell>
-          <cell r="I80">
-            <v>5.7220225125762054</v>
-          </cell>
-          <cell r="K80">
-            <v>2955.9234744763962</v>
-          </cell>
-          <cell r="M80">
-            <v>1386.6666004395092</v>
-          </cell>
-          <cell r="O80">
-            <v>186.83895038028214</v>
-          </cell>
-          <cell r="Q80">
-            <v>96.409574582645448</v>
-          </cell>
-          <cell r="S80">
-            <v>48.391310531999864</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>6.583333333333333</v>
-          </cell>
-          <cell r="I81">
-            <v>5.6344982728878845</v>
-          </cell>
-          <cell r="K81">
-            <v>2949.033380158503</v>
-          </cell>
-          <cell r="M81">
-            <v>1387.945090763526</v>
-          </cell>
-          <cell r="O81">
-            <v>186.86481687612968</v>
-          </cell>
-          <cell r="Q81">
-            <v>96.508484281834669</v>
-          </cell>
-          <cell r="S81">
-            <v>48.334586814887388</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>6.666666666666667</v>
-          </cell>
-          <cell r="I82">
-            <v>5.5483128067741481</v>
-          </cell>
-          <cell r="K82">
-            <v>2942.1455281524682</v>
-          </cell>
-          <cell r="M82">
-            <v>1389.1879125228631</v>
-          </cell>
-          <cell r="O82">
-            <v>186.89481891968245</v>
-          </cell>
-          <cell r="Q82">
-            <v>96.606874570725623</v>
-          </cell>
-          <cell r="S82">
-            <v>48.278916998311828</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>6.75</v>
-          </cell>
-          <cell r="I83">
-            <v>5.4634456363115058</v>
-          </cell>
-          <cell r="K83">
-            <v>2935.2602086372317</v>
-          </cell>
-          <cell r="M83">
-            <v>1390.3953327939678</v>
-          </cell>
-          <cell r="O83">
-            <v>186.92870471426664</v>
-          </cell>
-          <cell r="Q83">
-            <v>96.704764170624884</v>
-          </cell>
-          <cell r="S83">
-            <v>48.224300114789592</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>6.833333333333333</v>
-          </cell>
-          <cell r="I84">
-            <v>5.3798765968074385</v>
-          </cell>
-          <cell r="K84">
-            <v>2928.3777054914913</v>
-          </cell>
-          <cell r="M84">
-            <v>1391.5676178298288</v>
-          </cell>
-          <cell r="O84">
-            <v>186.96623055084441</v>
-          </cell>
-          <cell r="Q84">
-            <v>96.80217074337088</v>
-          </cell>
-          <cell r="S84">
-            <v>48.170734197721394</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>6.916666666666667</v>
-          </cell>
-          <cell r="I85">
-            <v>5.2975858320092124</v>
-          </cell>
-          <cell r="K85">
-            <v>2921.4982964136666</v>
-          </cell>
-          <cell r="M85">
-            <v>1392.7050330418008</v>
-          </cell>
-          <cell r="O85">
-            <v>187.00716057773312</v>
-          </cell>
-          <cell r="Q85">
-            <v>96.899110928218249</v>
-          </cell>
-          <cell r="S85">
-            <v>48.118216330729773</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>7</v>
-          </cell>
-          <cell r="I86">
-            <v>5.2165537893859701</v>
-          </cell>
-          <cell r="K86">
-            <v>2914.6222530396217</v>
-          </cell>
-          <cell r="M86">
-            <v>1393.80784298202</v>
-          </cell>
-          <cell r="O86">
-            <v>187.05126657672304</v>
-          </cell>
-          <cell r="Q86">
-            <v>96.995600377630083</v>
-          </cell>
-          <cell r="S86">
-            <v>48.066742695242127</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>7.083333333333333</v>
-          </cell>
-          <cell r="I87">
-            <v>5.1367612154829922</v>
-          </cell>
-          <cell r="K87">
-            <v>2907.7498410581848</v>
-          </cell>
-          <cell r="M87">
-            <v>1394.8763113263988</v>
-          </cell>
-          <cell r="O87">
-            <v>187.09832774541621</v>
-          </cell>
-          <cell r="Q87">
-            <v>97.091653792008856</v>
-          </cell>
-          <cell r="S87">
-            <v>48.016308616374367</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>7.166666666666667</v>
-          </cell>
-          <cell r="I88">
-            <v>5.0581891513470216</v>
-          </cell>
-          <cell r="K88">
-            <v>2900.8813203245086</v>
-          </cell>
-          <cell r="M88">
-            <v>1395.910700858185</v>
-          </cell>
-          <cell r="O88">
-            <v>187.14813048561382</v>
-          </cell>
-          <cell r="Q88">
-            <v>97.187284953395974</v>
-          </cell>
-          <cell r="S88">
-            <v>47.966908607168811</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>7.25</v>
-          </cell>
-          <cell r="I89">
-            <v>4.9808189280215558</v>
-          </cell>
-          <cell r="K89">
-            <v>2894.0169449713126</v>
-          </cell>
-          <cell r="M89">
-            <v>1396.9112734520768</v>
-          </cell>
-          <cell r="O89">
-            <v>187.2004681975844</v>
-          </cell>
-          <cell r="Q89">
-            <v>97.282506758168978</v>
-          </cell>
-          <cell r="S89">
-            <v>47.918536411238229</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>7.333333333333333</v>
-          </cell>
-          <cell r="I90">
-            <v>4.9046321621110502</v>
-          </cell>
-          <cell r="K90">
-            <v>2887.1569635180417</v>
-          </cell>
-          <cell r="M90">
-            <v>1397.8782900588767</v>
-          </cell>
-          <cell r="O90">
-            <v>187.25514108004981</v>
-          </cell>
-          <cell r="Q90">
-            <v>97.377331248764676</v>
-          </cell>
-          <cell r="S90">
-            <v>47.87118504386639</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>7.416666666666667</v>
-          </cell>
-          <cell r="I91">
-            <v>4.8296107514129671</v>
-          </cell>
-          <cell r="K91">
-            <v>2880.3016189779864</v>
-          </cell>
-          <cell r="M91">
-            <v>1398.812010690677</v>
-          </cell>
-          <cell r="O91">
-            <v>187.31195593573045</v>
-          </cell>
-          <cell r="Q91">
-            <v>97.471769644455733</v>
-          </cell>
-          <cell r="S91">
-            <v>47.824846831614067</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>7.5</v>
-          </cell>
-          <cell r="I92">
-            <v>4.755736870616639</v>
-          </cell>
-          <cell r="K92">
-            <v>2873.4511489633965</v>
-          </cell>
-          <cell r="M92">
-            <v>1399.7126944065617</v>
-          </cell>
-          <cell r="O92">
-            <v>187.37072598229554</v>
-          </cell>
-          <cell r="Q92">
-            <v>97.565832371207378</v>
-          </cell>
-          <cell r="S92">
-            <v>47.779513450477921</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>7.583333333333333</v>
-          </cell>
-          <cell r="I93">
-            <v>4.6829929670679205</v>
-          </cell>
-          <cell r="K93">
-            <v>2866.6057857886317</v>
-          </cell>
-          <cell r="M93">
-            <v>1400.580599298816</v>
-          </cell>
-          <cell r="O93">
-            <v>187.43127066856874</v>
-          </cell>
-          <cell r="Q93">
-            <v>97.659529090640163</v>
-          </cell>
-          <cell r="S93">
-            <v>47.735175962648235</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>7.666666666666667</v>
-          </cell>
-          <cell r="I94">
-            <v>4.6113617565986278</v>
-          </cell>
-          <cell r="K94">
-            <v>2859.7657565713812</v>
-          </cell>
-          <cell r="M94">
-            <v>1401.41598247963</v>
-          </cell>
-          <cell r="O94">
-            <v>187.49341549584341</v>
-          </cell>
-          <cell r="Q94">
-            <v>97.752868728124156</v>
-          </cell>
-          <cell r="S94">
-            <v>47.691824851910248</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>7.75</v>
-          </cell>
-          <cell r="I95">
-            <v>4.5408262194197668</v>
-          </cell>
-          <cell r="K95">
-            <v>2852.9312833319877</v>
-          </cell>
-          <cell r="M95">
-            <v>1402.2191000682872</v>
-          </cell>
-          <cell r="O95">
-            <v>187.55699184416565</v>
-          </cell>
-          <cell r="Q95">
-            <v>97.845859500028936</v>
-          </cell>
-          <cell r="S95">
-            <v>47.649450057732281</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>7.833333333333333</v>
-          </cell>
-          <cell r="I96">
-            <v>4.4713695960775812</v>
-          </cell>
-          <cell r="K96">
-            <v>2846.1025830909171</v>
-          </cell>
-          <cell r="M96">
-            <v>1402.9902071788263</v>
-          </cell>
-          <cell r="O96">
-            <v>187.62183680344791</v>
-          </cell>
-          <cell r="Q96">
-            <v>97.938508940153412</v>
-          </cell>
-          <cell r="S96">
-            <v>47.608041008082751</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>7.916666666666667</v>
-          </cell>
-          <cell r="I97">
-            <v>4.4029753834714569</v>
-          </cell>
-          <cell r="K97">
-            <v>2839.2798679644006</v>
-          </cell>
-          <cell r="M97">
-            <v>1403.729557908166</v>
-          </cell>
-          <cell r="O97">
-            <v>187.68779300927872</v>
-          </cell>
-          <cell r="Q97">
-            <v>98.030823925358575</v>
-          </cell>
-          <cell r="S97">
-            <v>47.567586651016811</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>8</v>
-          </cell>
-          <cell r="I98">
-            <v>4.3356273309327342</v>
-          </cell>
-          <cell r="K98">
-            <v>2832.4633452582893</v>
-          </cell>
-          <cell r="M98">
-            <v>1404.4374053246827</v>
-          </cell>
-          <cell r="O98">
-            <v>187.754708483299</v>
-          </cell>
-          <cell r="Q98">
-            <v>98.122810700425717</v>
-          </cell>
-          <cell r="S98">
-            <v>47.528075485072144</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>8.0833333333333339</v>
-          </cell>
-          <cell r="I99">
-            <v>4.2693094363635034</v>
-          </cell>
-          <cell r="K99">
-            <v>2825.6532175601519</v>
-          </cell>
-          <cell r="M99">
-            <v>1405.1140014572293</v>
-          </cell>
-          <cell r="O99">
-            <v>187.82243647801783</v>
-          </cell>
-          <cell r="Q99">
-            <v>98.21447490216211</v>
-          </cell>
-          <cell r="S99">
-            <v>47.489495588512249</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>8.1666666666666661</v>
-          </cell>
-          <cell r="I100">
-            <v>4.2040059424344562</v>
-          </cell>
-          <cell r="K100">
-            <v>2818.8496828296484</v>
-          </cell>
-          <cell r="M100">
-            <v>1405.7595972845886</v>
-          </cell>
-          <cell r="O100">
-            <v>187.89083532594523</v>
-          </cell>
-          <cell r="Q100">
-            <v>98.305821582775437</v>
-          </cell>
-          <cell r="S100">
-            <v>47.451834647454433</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>8.25</v>
-          </cell>
-          <cell r="I101">
-            <v>4.1397013328408985</v>
-          </cell>
-          <cell r="K101">
-            <v>2812.0529344872111</v>
-          </cell>
-          <cell r="M101">
-            <v>1406.3744427253475</v>
-          </cell>
-          <cell r="O101">
-            <v>187.95976829292189</v>
-          </cell>
-          <cell r="Q101">
-            <v>98.396855232537661</v>
-          </cell>
-          <cell r="S101">
-            <v>47.415079982918591</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="F102">
-            <v>8.3333333333333339</v>
-          </cell>
-          <cell r="I102">
-            <v>4.0763803286160298</v>
-          </cell>
-          <cell r="K102">
-            <v>2805.2631615010691</v>
-          </cell>
-          <cell r="M102">
-            <v>1406.9587866281861</v>
-          </cell>
-          <cell r="O102">
-            <v>188.02910343552989</v>
-          </cell>
-          <cell r="Q102">
-            <v>98.487579801758443</v>
-          </cell>
-          <cell r="S102">
-            <v>47.37921857683174</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="F103">
-            <v>8.4166666666666661</v>
-          </cell>
-          <cell r="I103">
-            <v>4.0140278845006163</v>
-          </cell>
-          <cell r="K103">
-            <v>2798.4805484726394</v>
-          </cell>
-          <cell r="M103">
-            <v>1407.5128767625686</v>
-          </cell>
-          <cell r="O103">
-            <v>188.0987134624711</v>
-          </cell>
-          <cell r="Q103">
-            <v>98.57799872208787</v>
-          </cell>
-          <cell r="S103">
-            <v>47.344237097022258</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="F104">
-            <v>8.5</v>
-          </cell>
-          <cell r="I104">
-            <v>3.9526291853681901</v>
-          </cell>
-          <cell r="K104">
-            <v>2791.705275720321</v>
-          </cell>
-          <cell r="M104">
-            <v>1408.0369598098312</v>
-          </cell>
-          <cell r="O104">
-            <v>188.16847559980374</v>
-          </cell>
-          <cell r="Q104">
-            <v>98.668114927167281</v>
-          </cell>
-          <cell r="S104">
-            <v>47.310121921236764</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="F105">
-            <v>8.5833333333333339</v>
-          </cell>
-          <cell r="I105">
-            <v>3.8921696427049328</v>
-          </cell>
-          <cell r="K105">
-            <v>2784.9375193617216</v>
-          </cell>
-          <cell r="M105">
-            <v>1408.5312813546541</v>
-          </cell>
-          <cell r="O105">
-            <v>188.23827145992982</v>
-          </cell>
-          <cell r="Q105">
-            <v>98.757930872646881</v>
-          </cell>
-          <cell r="S105">
-            <v>47.276859160211487</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="F106">
-            <v>8.6666666666666661</v>
-          </cell>
-          <cell r="I106">
-            <v>3.8326348911434014</v>
-          </cell>
-          <cell r="K106">
-            <v>2778.1774513943424</v>
-          </cell>
-          <cell r="M106">
-            <v>1408.9960858769109</v>
-          </cell>
-          <cell r="O106">
-            <v>188.30798691422982</v>
-          </cell>
-          <cell r="Q106">
-            <v>98.847448555588073</v>
-          </cell>
-          <cell r="S106">
-            <v>47.24443467982919</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="F107">
-            <v>8.75</v>
-          </cell>
-          <cell r="I107">
-            <v>3.7740107850492732</v>
-          </cell>
-          <cell r="K107">
-            <v>2771.4252397747514</v>
-          </cell>
-          <cell r="M107">
-            <v>1409.4316167438865</v>
-          </cell>
-          <cell r="O107">
-            <v>188.37751196924353</v>
-          </cell>
-          <cell r="Q107">
-            <v>98.936669533267946</v>
-          </cell>
-          <cell r="S107">
-            <v>47.21283412239152</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="F108">
-            <v>8.8333333333333339</v>
-          </cell>
-          <cell r="I108">
-            <v>3.7162833951603012</v>
-          </cell>
-          <cell r="K108">
-            <v>2764.6810484962766</v>
-          </cell>
-          <cell r="M108">
-            <v>1409.8381162028538</v>
-          </cell>
-          <cell r="O108">
-            <v>188.44674064629893</v>
-          </cell>
-          <cell r="Q108">
-            <v>99.025594941403057</v>
-          </cell>
-          <cell r="S108">
-            <v>47.182042927036044</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="F109">
-            <v>8.9166666666666661</v>
-          </cell>
-          <cell r="I109">
-            <v>3.6594390052766803</v>
-          </cell>
-          <cell r="K109">
-            <v>2757.9450376652412</v>
-          </cell>
-          <cell r="M109">
-            <v>1410.2158253740038</v>
-          </cell>
-          <cell r="O109">
-            <v>188.51557086449364</v>
-          </cell>
-          <cell r="Q109">
-            <v>99.114225511808883</v>
-          </cell>
-          <cell r="S109">
-            <v>47.152046349326071</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="F110">
-            <v>9</v>
-          </cell>
-          <cell r="I110">
-            <v>3.603464109002037</v>
-          </cell>
-          <cell r="K110">
-            <v>2751.2173635757717</v>
-          </cell>
-          <cell r="M110">
-            <v>1410.5649842437172</v>
-          </cell>
-          <cell r="O110">
-            <v>188.58390432693579</v>
-          </cell>
-          <cell r="Q110">
-            <v>99.202561589511106</v>
-          </cell>
-          <cell r="S110">
-            <v>47.122829480040679</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="F111">
-            <v>9.0833333333333339</v>
-          </cell>
-          <cell r="I111">
-            <v>3.5483454065342692</v>
-          </cell>
-          <cell r="K111">
-            <v>2744.4981787832048</v>
-          </cell>
-          <cell r="M111">
-            <v>1410.885831658172</v>
-          </cell>
-          <cell r="O111">
-            <v>188.65164641015474</v>
-          </cell>
-          <cell r="Q111">
-            <v>99.29060314932434</v>
-          </cell>
-          <cell r="S111">
-            <v>47.094377263191511</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="F112">
-            <v>9.1666666666666661</v>
-          </cell>
-          <cell r="I112">
-            <v>3.4940698015054741</v>
-          </cell>
-          <cell r="K112">
-            <v>2737.7876321761191</v>
-          </cell>
-          <cell r="M112">
-            <v>1411.1786053172798</v>
-          </cell>
-          <cell r="O112">
-            <v>188.71870605659313</v>
-          </cell>
-          <cell r="Q112">
-            <v>99.378349811913438</v>
-          </cell>
-          <cell r="S112">
-            <v>47.066674513291979</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="F113">
-            <v>9.25</v>
-          </cell>
-          <cell r="I113">
-            <v>3.4406243978702125</v>
-          </cell>
-          <cell r="K113">
-            <v>2731.085869047015</v>
-          </cell>
-          <cell r="M113">
-            <v>1411.4435417689401</v>
-          </cell>
-          <cell r="O113">
-            <v>188.78499567009561</v>
-          </cell>
-          <cell r="Q113">
-            <v>99.465800859352214</v>
-          </cell>
-          <cell r="S113">
-            <v>47.039705931903896</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="F114">
-            <v>9.3333333333333339</v>
-          </cell>
-          <cell r="I114">
-            <v>3.3879964968413683</v>
-          </cell>
-          <cell r="K114">
-            <v>2724.3930311616728</v>
-          </cell>
-          <cell r="M114">
-            <v>1411.6808764036089</v>
-          </cell>
-          <cell r="O114">
-            <v>188.8504310143108</v>
-          </cell>
-          <cell r="Q114">
-            <v>99.552955250193875</v>
-          </cell>
-          <cell r="S114">
-            <v>47.013456123485696</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="F115">
-            <v>9.4166666666666661</v>
-          </cell>
-          <cell r="I115">
-            <v>3.3361735938728811</v>
-          </cell>
-          <cell r="K115">
-            <v>2717.7092568272092</v>
-          </cell>
-          <cell r="M115">
-            <v>1411.8908434491714</v>
-          </cell>
-          <cell r="O115">
-            <v>188.91493111392631</v>
-          </cell>
-          <cell r="Q115">
-            <v>99.639811634067172</v>
-          </cell>
-          <cell r="S115">
-            <v>46.987909610565644</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="F116">
-            <v>9.5</v>
-          </cell>
-          <cell r="I116">
-            <v>3.285143375688627</v>
-          </cell>
-          <cell r="K116">
-            <v>2711.0346809588586</v>
-          </cell>
-          <cell r="M116">
-            <v>1412.0736759661133</v>
-          </cell>
-          <cell r="O116">
-            <v>188.97841815865795</v>
-          </cell>
-          <cell r="Q116">
-            <v>99.726368365811709</v>
-          </cell>
-          <cell r="S116">
-            <v>46.963050848262803</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="F117">
-            <v>9.5833333333333339</v>
-          </cell>
-          <cell r="I117">
-            <v>3.2348937173567482</v>
-          </cell>
-          <cell r="K117">
-            <v>2704.3694351455019</v>
-          </cell>
-          <cell r="M117">
-            <v>1412.2296058429824</v>
-          </cell>
-          <cell r="O117">
-            <v>189.04081740991722</v>
-          </cell>
-          <cell r="Q117">
-            <v>99.812623519165754</v>
-          </cell>
-          <cell r="S117">
-            <v>46.938864238177764</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="F118">
-            <v>9.6666666666666661</v>
-          </cell>
-          <cell r="I118">
-            <v>3.1854126794087336</v>
-          </cell>
-          <cell r="K118">
-            <v>2697.7136477139684</v>
-          </cell>
-          <cell r="M118">
-            <v>1412.3588637921343</v>
-          </cell>
-          <cell r="O118">
-            <v>189.10205711008302</v>
-          </cell>
-          <cell r="Q118">
-            <v>99.898574900019298</v>
-          </cell>
-          <cell r="S118">
-            <v>46.915334141674499</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="F119">
-            <v>9.75</v>
-          </cell>
-          <cell r="I119">
-            <v>3.1366885050025646</v>
-          </cell>
-          <cell r="K119">
-            <v>2691.0674437921289</v>
-          </cell>
-          <cell r="M119">
-            <v>1412.4616793457558</v>
-          </cell>
-          <cell r="O119">
-            <v>189.16206839430507</v>
-          </cell>
-          <cell r="Q119">
-            <v>99.984220059244748</v>
-          </cell>
-          <cell r="S119">
-            <v>46.892444892574019</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="F120">
-            <v>9.8333333333333339</v>
-          </cell>
-          <cell r="I120">
-            <v>3.088709617129255</v>
-          </cell>
-          <cell r="K120">
-            <v>2684.4309453708102</v>
-          </cell>
-          <cell r="M120">
-            <v>1412.5382808521588</v>
-          </cell>
-          <cell r="O120">
-            <v>189.22078520476958</v>
-          </cell>
-          <cell r="Q120">
-            <v>100.0695563051175</v>
-          </cell>
-          <cell r="S120">
-            <v>46.87018080927988</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="F121">
-            <v>9.9166666666666661</v>
-          </cell>
-          <cell r="I121">
-            <v>3.041464615862119</v>
-          </cell>
-          <cell r="K121">
-            <v>2677.8042713645441</v>
-          </cell>
-          <cell r="M121">
-            <v>1412.5888954723378</v>
-          </cell>
-          <cell r="O121">
-            <v>189.27814420735865</v>
-          </cell>
-          <cell r="Q121">
-            <v>100.15458071533811</v>
-          </cell>
-          <cell r="S121">
-            <v>46.848526206355039</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="F122">
-            <v>10</v>
-          </cell>
-          <cell r="I122">
-            <v>2.9949422756481145</v>
-          </cell>
-          <cell r="K122">
-            <v>2671.1875376711791</v>
-          </cell>
-          <cell r="M122">
-            <v>1412.6137491767856</v>
-          </cell>
-          <cell r="O122">
-            <v>189.3340847106372</v>
-          </cell>
-          <cell r="Q122">
-            <v>100.23929014866742</v>
-          </cell>
-          <cell r="S122">
-            <v>46.827465405568809</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="F123">
-            <v>10.083333333333334</v>
-          </cell>
-          <cell r="I123">
-            <v>2.9491315426406182</v>
-          </cell>
-          <cell r="K123">
-            <v>2664.580857230374</v>
-          </cell>
-          <cell r="M123">
-            <v>1412.6130667425605</v>
-          </cell>
-          <cell r="O123">
-            <v>189.38854858710326</v>
-          </cell>
-          <cell r="Q123">
-            <v>100.32368125618594</v>
-          </cell>
-          <cell r="S123">
-            <v>46.806982746432226</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="F124">
-            <v>10.166666666666666</v>
-          </cell>
-          <cell r="I124">
-            <v>2.9040215320729992</v>
-          </cell>
-          <cell r="K124">
-            <v>2657.9843400809932</v>
-          </cell>
-          <cell r="M124">
-            <v>1412.5870717505984</v>
-          </cell>
-          <cell r="O124">
-            <v>189.44148019663879</v>
-          </cell>
-          <cell r="Q124">
-            <v>100.40775049218814</v>
-          </cell>
-          <cell r="S124">
-            <v>46.787062596239522</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="F125">
-            <v>10.25</v>
-          </cell>
-          <cell r="I125">
-            <v>2.8596015256723657</v>
-          </cell>
-          <cell r="K125">
-            <v>2651.398093417426</v>
-          </cell>
-          <cell r="M125">
-            <v>1412.5359865832654</v>
-          </cell>
-          <cell r="O125">
-            <v>189.49282631210025</v>
-          </cell>
-          <cell r="Q125">
-            <v>100.49149412472231</v>
-          </cell>
-          <cell r="S125">
-            <v>46.767689359632804</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="F126">
-            <v>10.333333333333334</v>
-          </cell>
-          <cell r="I126">
-            <v>2.8158609691128715</v>
-          </cell>
-          <cell r="K126">
-            <v>2644.8222216448476</v>
-          </cell>
-          <cell r="M126">
-            <v>1412.4600324221428</v>
-          </cell>
-          <cell r="O126">
-            <v>189.54253604698977</v>
-          </cell>
-          <cell r="Q126">
-            <v>100.57490824578601</v>
-          </cell>
-          <cell r="S126">
-            <v>46.748847487706591</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="F127">
-            <v>10.416666666666666</v>
-          </cell>
-          <cell r="I127">
-            <v>2.7727894695079769</v>
-          </cell>
-          <cell r="K127">
-            <v>2638.2568264334454</v>
-          </cell>
-          <cell r="M127">
-            <v>1412.3594292460405</v>
-          </cell>
-          <cell r="O127">
-            <v>189.59056078514925</v>
-          </cell>
-          <cell r="Q127">
-            <v>100.6579887811873</v>
-          </cell>
-          <cell r="S127">
-            <v>46.730521486668273</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="F128">
-            <v>10.5</v>
-          </cell>
-          <cell r="I128">
-            <v>2.7303767929410672</v>
-          </cell>
-          <cell r="K128">
-            <v>2631.7020067716257</v>
-          </cell>
-          <cell r="M128">
-            <v>1412.2343958292327</v>
-          </cell>
-          <cell r="O128">
-            <v>189.63685411242153</v>
-          </cell>
-          <cell r="Q128">
-            <v>100.74073150008122</v>
-          </cell>
-          <cell r="S128">
-            <v>46.712695926070111</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="F129">
-            <v>10.583333333333334</v>
-          </cell>
-          <cell r="I129">
-            <v>2.6886128620338448</v>
-          </cell>
-          <cell r="K129">
-            <v>2625.1578590182216</v>
-          </cell>
-          <cell r="M129">
-            <v>1412.0851497399096</v>
-          </cell>
-          <cell r="O129">
-            <v>189.68137175022432</v>
-          </cell>
-          <cell r="Q129">
-            <v>100.82313202419097</v>
-          </cell>
-          <cell r="S129">
-            <v>46.695355446627843</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="F130">
-            <v>10.666666666666666</v>
-          </cell>
-          <cell r="I130">
-            <v>2.6474877535519128</v>
-          </cell>
-          <cell r="K130">
-            <v>2618.624476953722</v>
-          </cell>
-          <cell r="M130">
-            <v>1411.9119073388415</v>
-          </cell>
-          <cell r="O130">
-            <v>189.7240714909837</v>
-          </cell>
-          <cell r="Q130">
-            <v>100.90518583672285</v>
-          </cell>
-          <cell r="S130">
-            <v>46.678484767640576</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="F131">
-            <v>10.75</v>
-          </cell>
-          <cell r="I131">
-            <v>2.6069916960469857</v>
-          </cell>
-          <cell r="K131">
-            <v>2612.101951830537</v>
-          </cell>
-          <cell r="M131">
-            <v>1411.7148837782479</v>
-          </cell>
-          <cell r="O131">
-            <v>189.7649131353761</v>
-          </cell>
-          <cell r="Q131">
-            <v>100.98688829098404</v>
-          </cell>
-          <cell r="S131">
-            <v>46.66206869402609</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="F132">
-            <v>10.833333333333334</v>
-          </cell>
-          <cell r="I132">
-            <v>2.5671150675351644</v>
-          </cell>
-          <cell r="K132">
-            <v>2605.5903724223208</v>
-          </cell>
-          <cell r="M132">
-            <v>1411.4942930008679</v>
-          </cell>
-          <cell r="O132">
-            <v>189.80385843132856</v>
-          </cell>
-          <cell r="Q132">
-            <v>101.06823461871154</v>
-          </cell>
-          <cell r="S132">
-            <v>46.646092122985344</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12242,7 +10613,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -12289,11 +10660,11 @@
   EDIT 3 DEPL 146. 219. DAY POWR 70.89610455 ;</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B62" si="1">C2</f>
+        <f t="shared" ref="B3:B50" si="1">C2</f>
         <v>146</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C62" si="2">B3+73</f>
+        <f t="shared" ref="C3:C50" si="2">B3+73</f>
         <v>219</v>
       </c>
     </row>
@@ -13012,8 +11383,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:BF298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13074,7 +11445,7 @@
         <v>5.1894</v>
       </c>
       <c r="E2">
-        <f>D2/B2</f>
+        <f t="shared" ref="E2:E9" si="0">D2/B2</f>
         <v>2.9517092315567943</v>
       </c>
       <c r="I2">
@@ -13242,7 +11613,7 @@
         <v>1.2642</v>
       </c>
       <c r="E3">
-        <f>D3/B3</f>
+        <f t="shared" si="0"/>
         <v>3.0659164766939906</v>
       </c>
       <c r="F3" s="2"/>
@@ -13468,12 +11839,12 @@
         <v>7.2667000000000002</v>
       </c>
       <c r="E4">
-        <f>D4/B4</f>
+        <f t="shared" si="0"/>
         <v>2.9807211124328314</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G7" si="0">N4/I4</f>
+        <f t="shared" ref="G4:G7" si="1">N4/I4</f>
         <v>1.015404656860877</v>
       </c>
       <c r="H4" t="s">
@@ -13694,12 +12065,12 @@
         <v>0.93701999999999996</v>
       </c>
       <c r="E5">
-        <f>D5/B5</f>
+        <f t="shared" si="0"/>
         <v>3.131332709530811</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97419550237876373</v>
       </c>
       <c r="H5" t="s">
@@ -13920,12 +12291,12 @@
         <v>1.0602</v>
       </c>
       <c r="E6">
-        <f>D6/B6</f>
+        <f t="shared" si="0"/>
         <v>3.4988944259265371</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99642678182211841</v>
       </c>
       <c r="H6" t="s">
@@ -13936,199 +12307,199 @@
         <v>1.2346997039610428E-2</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J6:BF6" si="1">J3+J4</f>
+        <f t="shared" ref="J6:BF6" si="2">J3+J4</f>
         <v>1.2336733369497855E-2</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2327719660034393E-2</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2319316549315826E-2</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2310916208229845E-2</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2302878525346242E-2</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2294516983727414E-2</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2286405085657879E-2</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2278116758718514E-2</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2269898110947079E-2</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2261474215594297E-2</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2252748454245885E-2</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2244264702332718E-2</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2235172706891201E-2</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2226218957072288E-2</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2217407729813263E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2207875852679507E-2</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2198349525611557E-2</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2188691445740531E-2</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2178736641747056E-2</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.216851810734999E-2</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2158311511207495E-2</v>
       </c>
       <c r="AE6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2147452641277673E-2</v>
       </c>
       <c r="AF6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2136592248418603E-2</v>
       </c>
       <c r="AG6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2125378056497951E-2</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2114009281187445E-2</v>
       </c>
       <c r="AI6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2102590186096857E-2</v>
       </c>
       <c r="AJ6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2090777037147773E-2</v>
       </c>
       <c r="AK6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2078559935823727E-2</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2066125731570104E-2</v>
       </c>
       <c r="AM6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.205332313091205E-2</v>
       </c>
       <c r="AN6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2040584655295977E-2</v>
       </c>
       <c r="AO6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2027090852767829E-2</v>
       </c>
       <c r="AP6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2013463877872971E-2</v>
       </c>
       <c r="AQ6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1999924601301285E-2</v>
       </c>
       <c r="AR6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1985836266060274E-2</v>
       </c>
       <c r="AS6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1971566883901635E-2</v>
       </c>
       <c r="AT6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1956736519559114E-2</v>
       </c>
       <c r="AU6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1942294133710955E-2</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.192702495519919E-2</v>
       </c>
       <c r="AW6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1911512115253917E-2</v>
       </c>
       <c r="AX6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1895785662656762E-2</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1879799025329964E-2</v>
       </c>
       <c r="AZ6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1863546893203533E-2</v>
       </c>
       <c r="BA6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1846968028270902E-2</v>
       </c>
       <c r="BB6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1830453768779281E-2</v>
       </c>
       <c r="BC6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1813380451275999E-2</v>
       </c>
       <c r="BD6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1796067016724476E-2</v>
       </c>
       <c r="BE6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1778400561628776E-2</v>
       </c>
       <c r="BF6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1760493876134223E-2</v>
       </c>
     </row>
@@ -14146,12 +12517,12 @@
         <v>3.7700999999999998</v>
       </c>
       <c r="E7">
-        <f>D7/B7</f>
+        <f t="shared" si="0"/>
         <v>2.9983298870685537</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0011781730394336</v>
       </c>
       <c r="H7" t="s">
@@ -14162,199 +12533,199 @@
         <v>2.9218004672242994</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:BF7" si="2">J5/J3</f>
+        <f t="shared" ref="J7:BF7" si="3">J5/J3</f>
         <v>2.9224810302283557</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9232050123348134</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9239062508001545</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9245851651931769</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9252428537613877</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9258836885447712</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9265057917478936</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.927111217523612</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9277017661206473</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9282773112872991</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.928837820209353</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9293836472390873</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9299174100749799</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.930437090394006</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9309429854022526</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9314376986095585</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9319219850919498</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9323930315682638</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9328529085228383</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9333028650971111</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9337410216945461</v>
       </c>
       <c r="AE7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9341707085266862</v>
       </c>
       <c r="AF7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9345895123379822</v>
       </c>
       <c r="AG7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9349990787318547</v>
       </c>
       <c r="AH7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.935400504817232</v>
       </c>
       <c r="AI7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9357918080266976</v>
       </c>
       <c r="AJ7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9361748553498814</v>
       </c>
       <c r="AK7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9365497615674805</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9369172350070203</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9372776854267419</v>
       </c>
       <c r="AN7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9376295354818316</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9379760311133283</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9383143531687503</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9386449876138405</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9389715448413201</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9392903171970208</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9396054598951546</v>
       </c>
       <c r="AU7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9399122715670742</v>
       </c>
       <c r="AV7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9402151728685779</v>
       </c>
       <c r="AW7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9405134333201937</v>
       </c>
       <c r="AX7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9408045838555084</v>
       </c>
       <c r="AY7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9410917945441741</v>
       </c>
       <c r="AZ7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9413748367304184</v>
       </c>
       <c r="BA7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9416537634784565</v>
       </c>
       <c r="BB7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9419269744071745</v>
       </c>
       <c r="BC7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9421960165218657</v>
       </c>
       <c r="BD7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9424614986872903</v>
       </c>
       <c r="BE7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9427234217346867</v>
       </c>
       <c r="BF7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9429823518289084</v>
       </c>
     </row>
@@ -14372,7 +12743,7 @@
         <v>0.13804</v>
       </c>
       <c r="E8">
-        <f>D8/B8</f>
+        <f t="shared" si="0"/>
         <v>2.784748840024208</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -14383,199 +12754,199 @@
         <v>1.3091444179024869</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" ref="J8:BF8" si="3">J5/J6</f>
+        <f t="shared" ref="J8:BF8" si="4">J5/J6</f>
         <v>1.3023105561856585</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2966175323391402</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2910070282354384</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2854470219680412</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2799360948053526</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2745125947146516</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2691302777927742</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2638000708798751</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2585436090754696</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2533326274813421</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2481624376339298</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2430289285472191</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.237953216141126</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2329047294287285</v>
       </c>
       <c r="X8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2278814174132167</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2228988013194708</v>
       </c>
       <c r="Z8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2179780152121611</v>
       </c>
       <c r="AA8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2130509048914297</v>
       </c>
       <c r="AB8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2081539915723825</v>
       </c>
       <c r="AC8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2032923610245689</v>
       </c>
       <c r="AD8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1984337981273052</v>
       </c>
       <c r="AE8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1936177188492507</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1888023977462228</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1840040203126361</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1792447192184721</v>
       </c>
       <c r="AI8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1744819135739553</v>
       </c>
       <c r="AJ8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1697254988547605</v>
       </c>
       <c r="AK8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1649794453309545</v>
       </c>
       <c r="AL8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1602573184811134</v>
       </c>
       <c r="AM8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1555414975710172</v>
       </c>
       <c r="AN8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1508314390710614</v>
       </c>
       <c r="AO8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1461394335552488</v>
       </c>
       <c r="AP8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1414260890575854</v>
       </c>
       <c r="AQ8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1367150502126515</v>
       </c>
       <c r="AR8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1320372612635239</v>
       </c>
       <c r="AS8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1273341586239116</v>
       </c>
       <c r="AT8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1226622773449073</v>
       </c>
       <c r="AU8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1179678486109919</v>
       </c>
       <c r="AV8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1132777592093046</v>
       </c>
       <c r="AW8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1085993080721113</v>
       </c>
       <c r="AX8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1038831174827781</v>
       </c>
       <c r="AY8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.09917831213421</v>
       </c>
       <c r="AZ8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0944780922137045</v>
       </c>
       <c r="BA8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0897813321090872</v>
       </c>
       <c r="BB8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0850690664036364</v>
       </c>
       <c r="BC8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.080336772051772</v>
       </c>
       <c r="BD8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0756033398662364</v>
       </c>
       <c r="BE8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.07086773810137</v>
       </c>
       <c r="BF8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0661356225075</v>
       </c>
     </row>
@@ -14593,7 +12964,7 @@
         <v>4.5256999999999996</v>
       </c>
       <c r="E9">
-        <f>D9/B9</f>
+        <f t="shared" si="0"/>
         <v>2.463234093506776</v>
       </c>
       <c r="H9" s="6"/>
@@ -17228,7 +15599,7 @@
   <dimension ref="A1:AY298"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCellId="1" sqref="A6:XFD6 A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -63472,4 +61843,1951 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>A2/365</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.2614000000000003E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>52.114148285917473</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2*E2/C$2</f>
+        <v>52.114148285917473</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B51" si="0">A3/365</f>
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.2765999999999998E-5</v>
+      </c>
+      <c r="D3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E3">
+        <v>52.215626493826136</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F51" si="1">C3*E3/C$2</f>
+        <v>52.458981348399675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.2879000000000001E-5</v>
+      </c>
+      <c r="D4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E4">
+        <v>52.305756789460467</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>52.730759105925998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5">
+        <v>219</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.2954000000000003E-5</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>52.385075265916065</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>52.931188149659597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6">
+        <v>292</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.2994999999999998E-5</v>
+      </c>
+      <c r="D6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6">
+        <v>52.454098460488972</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>53.066872468995932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7">
+        <v>365</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.3003999999999998E-5</v>
+      </c>
+      <c r="D7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7">
+        <v>52.513323982244337</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>53.141281189366282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8">
+        <v>438</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.2985999999999999E-5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>52.563231120710348</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>53.162774935541528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9">
+        <v>511</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.2941999999999997E-5</v>
+      </c>
+      <c r="D9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E9">
+        <v>52.604281436246481</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>53.133324310812263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10">
+        <v>584</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2876999999999997E-5</v>
+      </c>
+      <c r="D10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10">
+        <v>52.636919332619222</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>53.061384586328629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11">
+        <v>657</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.2790999999999998E-5</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>52.661572612303303</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>52.947373138223995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12">
+        <v>730</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.2688999999999998E-5</v>
+      </c>
+      <c r="D12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E12">
+        <v>52.678653015011633</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>52.799794211311557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13">
+        <v>803</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.2571999999999999E-5</v>
+      </c>
+      <c r="D13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E13">
+        <v>52.688556739942761</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>52.620704916091725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14">
+        <v>876</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.2441000000000003E-5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>52.69166495222062</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>52.412163571318736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15">
+        <v>949</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.2299999999999999E-5</v>
+      </c>
+      <c r="D15">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E15">
+        <v>52.688344273987852</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>52.181073160293352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16">
+        <v>1022</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.2149E-5</v>
+      </c>
+      <c r="D16">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E16">
+        <v>52.678947260600694</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>51.927867648281463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1095</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.1989000000000002E-5</v>
+      </c>
+      <c r="D17">
+        <v>1.25</v>
+      </c>
+      <c r="E17">
+        <v>52.663812862360679</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>51.654587283192974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1168</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.1822999999999997E-5</v>
+      </c>
+      <c r="D18">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E18">
+        <v>52.643266872205793</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>51.366489289084583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1241</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.1652000000000001E-5</v>
+      </c>
+      <c r="D19">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E19">
+        <v>52.617622359771829</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>51.065584808103814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1314</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.1476000000000002E-5</v>
+      </c>
+      <c r="D20">
+        <v>1.5</v>
+      </c>
+      <c r="E20">
+        <v>52.587180092222702</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>50.752256104212968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1387</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.1297000000000002E-5</v>
+      </c>
+      <c r="D21">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E21">
+        <v>52.552228942237186</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>50.430094720218221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1460</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.1115999999999998E-5</v>
+      </c>
+      <c r="D22">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E22">
+        <v>52.513046283528396</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>50.101059304540051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1533</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.0932999999999997E-5</v>
+      </c>
+      <c r="D23">
+        <v>1.75</v>
+      </c>
+      <c r="E23">
+        <v>52.469898374261504</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>49.765480051849842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1606</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.0749E-5</v>
+      </c>
+      <c r="D24">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="E24">
+        <v>52.423040728724715</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>49.425279921737783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1679</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.0565000000000003E-5</v>
+      </c>
+      <c r="D25">
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="E25">
+        <v>52.372718477598397</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>49.082361570730207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1752</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.0380999999999999E-5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>52.319166717157202</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>48.737002637945444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1825</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.0198000000000001E-5</v>
+      </c>
+      <c r="D27">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E27">
+        <v>52.262610847730613</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>48.391068939098822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1898</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.0015999999999999E-5</v>
+      </c>
+      <c r="D28">
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E28">
+        <v>52.203266901737777</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>48.044804664333135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1971</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.9835000000000001E-5</v>
+      </c>
+      <c r="D29">
+        <v>2.25</v>
+      </c>
+      <c r="E29">
+        <v>52.141341861603564</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>47.698440376554309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2044</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.9657000000000001E-5</v>
+      </c>
+      <c r="D30">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E30">
+        <v>52.077033967853936</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>47.355387146153312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2117</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.9479999999999999E-5</v>
+      </c>
+      <c r="D31">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="E31">
+        <v>52.010533017680039</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>47.01264835227839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2190</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.9306E-5</v>
+      </c>
+      <c r="D32">
+        <v>2.5</v>
+      </c>
+      <c r="E32">
+        <v>51.942020654252261</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>46.673602051067533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2263</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.9133999999999999E-5</v>
+      </c>
+      <c r="D33">
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E33">
+        <v>51.87167064705725</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>46.33682629028533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2336</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.8963999999999999E-5</v>
+      </c>
+      <c r="D34">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E34">
+        <v>51.799649163523171</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>46.0024847725604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2409</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.8796999999999999E-5</v>
+      </c>
+      <c r="D35">
+        <v>2.75</v>
+      </c>
+      <c r="E35">
+        <v>51.726115032190648</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>45.672316630342607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2482</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.8632999999999998E-5</v>
+      </c>
+      <c r="D36">
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E36">
+        <v>51.651219997679682</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>45.346458030096343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2555</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.8470999999999999E-5</v>
+      </c>
+      <c r="D37">
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E37">
+        <v>51.575108967695336</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>45.023453959013111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2628</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.8313000000000001E-5</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>51.497920252308184</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>44.70658662241987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2701</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>7.4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.8155999999999999E-5</v>
+      </c>
+      <c r="D39">
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="E39">
+        <v>51.419785795738647</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>44.391227352205107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2774</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.8002999999999999E-5</v>
+      </c>
+      <c r="D40">
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E40">
+        <v>51.340831400867664</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>44.082213212684643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2847</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.7852E-5</v>
+      </c>
+      <c r="D41">
+        <v>3.25</v>
+      </c>
+      <c r="E41">
+        <v>51.261176946689801</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>43.776485568136515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2920</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.7702999999999999E-5</v>
+      </c>
+      <c r="D42">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E42">
+        <v>51.180936598918677</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>43.474136462863925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2993</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.7555999999999998E-5</v>
+      </c>
+      <c r="D43">
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="E43">
+        <v>51.100219013948383</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="1"/>
+        <v>43.1752509703919</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>3066</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.7412000000000001E-5</v>
+      </c>
+      <c r="D44">
+        <v>3.5</v>
+      </c>
+      <c r="E44">
+        <v>51.019127536368885</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="1"/>
+        <v>42.881471884066464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>3139</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.7270000000000001E-5</v>
+      </c>
+      <c r="D45">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="E45">
+        <v>50.937760390227467</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="1"/>
+        <v>42.591302074002051</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>3212</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.7129999999999999E-5</v>
+      </c>
+      <c r="D46">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E46">
+        <v>50.856210864222859</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="1"/>
+        <v>42.304807774157297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>3285</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.6991E-5</v>
+      </c>
+      <c r="D47">
+        <v>3.75</v>
+      </c>
+      <c r="E47">
+        <v>50.774567491013244</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="1"/>
+        <v>42.020492768441109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>3358</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.6854000000000001E-5</v>
+      </c>
+      <c r="D48">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E48">
+        <v>50.692914220814075</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="1"/>
+        <v>41.739974197759892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>3431</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.6718999999999999E-5</v>
+      </c>
+      <c r="D49">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E49">
+        <v>50.611330589456536</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="1"/>
+        <v>41.46330232475897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>3504</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.6585E-5</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>50.529891881072572</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="1"/>
+        <v>41.188973313862576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>3577</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.6452E-5</v>
+      </c>
+      <c r="D51">
+        <v>4.083333333333333</v>
+      </c>
+      <c r="E51">
+        <v>50.448669285567533</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="1"/>
+        <v>40.917035627087515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="D52">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E52">
+        <v>50.367730051036844</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="D53">
+        <v>4.25</v>
+      </c>
+      <c r="E53">
+        <v>50.287137631278604</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="D54">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="E54">
+        <v>50.206951828549492</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="D55">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="E55">
+        <v>50.127228931707243</v>
+      </c>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="D56">
+        <v>4.5</v>
+      </c>
+      <c r="E56">
+        <v>50.048021849878594</v>
+      </c>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="D57">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="E57">
+        <v>49.969380241787725</v>
+      </c>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="D58">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E58">
+        <v>49.891350640876233</v>
+      </c>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="D59">
+        <v>4.75</v>
+      </c>
+      <c r="E59">
+        <v>49.813976576341801</v>
+      </c>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="D60">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="E60">
+        <v>49.737298690219113</v>
+      </c>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="D61">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="E61">
+        <v>49.661354850622878</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>49.586180261269448</v>
+      </c>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="E63">
+        <v>49.51180756738993</v>
+      </c>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="E64">
+        <v>49.438266958144609</v>
+      </c>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65">
+        <v>5.25</v>
+      </c>
+      <c r="E65">
+        <v>49.365586265645085</v>
+      </c>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E66">
+        <v>49.293791060687603</v>
+      </c>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67">
+        <v>5.416666666666667</v>
+      </c>
+      <c r="E67">
+        <v>49.222904745297853</v>
+      </c>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68">
+        <v>5.5</v>
+      </c>
+      <c r="E68">
+        <v>49.152948642184747</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69">
+        <v>5.583333333333333</v>
+      </c>
+      <c r="E69">
+        <v>49.083942081197641</v>
+      </c>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="E70">
+        <v>49.015902482878921</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="D71">
+        <v>5.75</v>
+      </c>
+      <c r="E71">
+        <v>48.948845439200944</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="D72">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="E72">
+        <v>48.882784791573911</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73">
+        <v>5.916666666666667</v>
+      </c>
+      <c r="E73">
+        <v>48.817732706208517</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>48.753699746914997</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="E75">
+        <v>48.690694945417498</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="D76">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="E76">
+        <v>48.62872586926067</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="D77">
+        <v>6.25</v>
+      </c>
+      <c r="E77">
+        <v>48.567798687382854</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="D78">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="E78">
+        <v>48.507918233428278</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="D79">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="E79">
+        <v>48.449088066868285</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="D80">
+        <v>6.5</v>
+      </c>
+      <c r="E80">
+        <v>48.391310531999864</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="E81">
+        <v>48.334586814887388</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E82">
+        <v>48.278916998311828</v>
+      </c>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="D83">
+        <v>6.75</v>
+      </c>
+      <c r="E83">
+        <v>48.224300114789592</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="D84">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="E84">
+        <v>48.170734197721394</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="4:6">
+      <c r="D85">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="E85">
+        <v>48.118216330729773</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>48.066742695242127</v>
+      </c>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="D87">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="E87">
+        <v>48.016308616374367</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="4:6">
+      <c r="D88">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E88">
+        <v>47.966908607168811</v>
+      </c>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="D89">
+        <v>7.25</v>
+      </c>
+      <c r="E89">
+        <v>47.918536411238229</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="D90">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="E90">
+        <v>47.87118504386639</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="4:6">
+      <c r="D91">
+        <v>7.416666666666667</v>
+      </c>
+      <c r="E91">
+        <v>47.824846831614067</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92">
+        <v>7.5</v>
+      </c>
+      <c r="E92">
+        <v>47.779513450477921</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="D93">
+        <v>7.583333333333333</v>
+      </c>
+      <c r="E93">
+        <v>47.735175962648235</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="D94">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E94">
+        <v>47.691824851910248</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="D95">
+        <v>7.75</v>
+      </c>
+      <c r="E95">
+        <v>47.649450057732281</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="D96">
+        <v>7.833333333333333</v>
+      </c>
+      <c r="E96">
+        <v>47.608041008082751</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="D97">
+        <v>7.916666666666667</v>
+      </c>
+      <c r="E97">
+        <v>47.567586651016811</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="E98">
+        <v>47.528075485072144</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="4:6">
+      <c r="D99">
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="E99">
+        <v>47.489495588512249</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100">
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="E100">
+        <v>47.451834647454433</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="D101">
+        <v>8.25</v>
+      </c>
+      <c r="E101">
+        <v>47.415079982918591</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="D102">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E102">
+        <v>47.37921857683174</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="D103">
+        <v>8.4166666666666661</v>
+      </c>
+      <c r="E103">
+        <v>47.344237097022258</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="D104">
+        <v>8.5</v>
+      </c>
+      <c r="E104">
+        <v>47.310121921236764</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="D105">
+        <v>8.5833333333333339</v>
+      </c>
+      <c r="E105">
+        <v>47.276859160211487</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="D106">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="E106">
+        <v>47.24443467982919</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="D107">
+        <v>8.75</v>
+      </c>
+      <c r="E107">
+        <v>47.21283412239152</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="D108">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="E108">
+        <v>47.182042927036044</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="D109">
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="E109">
+        <v>47.152046349326071</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>47.122829480040679</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="D111">
+        <v>9.0833333333333339</v>
+      </c>
+      <c r="E111">
+        <v>47.094377263191511</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="D112">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="E112">
+        <v>47.066674513291979</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113">
+        <v>9.25</v>
+      </c>
+      <c r="E113">
+        <v>47.039705931903896</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="E114">
+        <v>47.013456123485696</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="D115">
+        <v>9.4166666666666661</v>
+      </c>
+      <c r="E115">
+        <v>46.987909610565644</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="D116">
+        <v>9.5</v>
+      </c>
+      <c r="E116">
+        <v>46.963050848262803</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="D117">
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="E117">
+        <v>46.938864238177764</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="D118">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="E118">
+        <v>46.915334141674499</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="D119">
+        <v>9.75</v>
+      </c>
+      <c r="E119">
+        <v>46.892444892574019</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="D120">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="E120">
+        <v>46.87018080927988</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="D121">
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="E121">
+        <v>46.848526206355039</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>46.827465405568809</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="D123">
+        <v>10.083333333333334</v>
+      </c>
+      <c r="E123">
+        <v>46.806982746432226</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="D124">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="E124">
+        <v>46.787062596239522</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125">
+        <v>10.25</v>
+      </c>
+      <c r="E125">
+        <v>46.767689359632804</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="D126">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="E126">
+        <v>46.748847487706591</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="D127">
+        <v>10.416666666666666</v>
+      </c>
+      <c r="E127">
+        <v>46.730521486668273</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="D128">
+        <v>10.5</v>
+      </c>
+      <c r="E128">
+        <v>46.712695926070111</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="D129">
+        <v>10.583333333333334</v>
+      </c>
+      <c r="E129">
+        <v>46.695355446627843</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="4:6">
+      <c r="D130">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="E130">
+        <v>46.678484767640576</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="4:6">
+      <c r="D131">
+        <v>10.75</v>
+      </c>
+      <c r="E131">
+        <v>46.66206869402609</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="D132">
+        <v>10.833333333333334</v>
+      </c>
+      <c r="E132">
+        <v>46.646092122985344</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="4:6">
+      <c r="D133">
+        <v>10.916666666666666</v>
+      </c>
+      <c r="E133">
+        <v>46.630540050309399</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="4:6">
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>46.615397576341714</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="4:6">
+      <c r="D135">
+        <v>11.083333333333334</v>
+      </c>
+      <c r="E135">
+        <v>46.600649911608265</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="4:6">
+      <c r="D136">
+        <v>11.166666666666666</v>
+      </c>
+      <c r="E136">
+        <v>46.586282382127528</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>